--- a/sorular.xlsx
+++ b/sorular.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emirhanipek/Desktop/bossotomasyon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tahir\OneDrive\Masaüstü\Klasörler\Sirius\Bossai\BossAi-Otomasyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931D5706-B7B1-F54F-9829-56CB9A783862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -20,43 +19,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Soru</t>
+    <t>10 kereden fazla ödemesini geciktiren müşteri sayısı kaçtır ve isimleri nelerdir?</t>
   </si>
   <si>
-    <t>Merhaba nasılsın</t>
+    <t>İstediğiniz kriterlere göre 339 müşteri buldum ve ödeme gecikme sayılarını hesapladım.
+1. Müşteri Adı: 3K MALZEMECİLİK SAN.TİC.LTD.ŞTİ
+   Toplam Gecikme: 34
+2. Müşteri Adı: 3SE YAPI KİMYASALLARI SANAYİ VE TİC.LTD.ŞTİ.
+   Toplam Gecikme: 12
+3. Müşteri Adı: ACAR YAPI  PVC-ÇELİK KAPI VE AKS. - ERHAN ACAR 
+   Toplam Gecikme: 31
+... ve 336 kayıt daha</t>
   </si>
   <si>
-    <t>bana bundan sonra patron de</t>
+    <t>Gecikmiş ödemeli en büyük 20 fatura hangileri?</t>
   </si>
   <si>
-    <t>Bu yıl en çok hangi ödeme yöntemi ile para çıkışı oldu?</t>
-  </si>
-  <si>
-    <t>Bu yıl sene başından beri en fazla satış yaptığım üç müşteri hangileri?</t>
-  </si>
-  <si>
-    <t>Bugün izinli olan kaç çalışanım var?</t>
+    <t>İstediğiniz kriterlere göre 20 kayıt buldum
+1. Belge No: SVS2024000000079
+   Tarih: 29.03.2024
+   Vade Tarihi: 28.04.2024
+   Gecikme Gün: 436
+   Para Birimi: TL
+   Borç: 677.445,81
+   Bakiye: 205.782.184,13
+   Müşteri Adı: SANTEK SANAYI IMALATINS.MÜT.DEMIR HIRDV.TIC.LTD.STI.
+2. Belge No: SVS2024000000078
+   Tarih: 28.03.2024
+   Vade Tarihi: 27.04.2024
+   Gecikme Gün: 437
+   Para Birimi: TL
+   Borç: 706.037,77
+   Bakiye: 204.398.700,55
+   Müşteri Adı: SANTEK SANAYI IMALATINS.MÜT.DEMIR HIRDV.TIC.LTD.STI.
+3. Belge No: SVS2024000000077
+   Tarih: 27.03.2024
+   Vade Tarihi: 26.04.2024
+   Gecikme Gün: 438
+   Para Birimi: TL
+   Borç: 754.280,66
+   Bakiye: 202.260.936,31
+   Müşteri Adı: SANTEK SANAYI IMALATINS.MÜT.DEMIR HIRDV.TIC.LTD.STI.
+... ve 17 kayıt daha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,8 +99,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,103 +441,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sorular.xlsx
+++ b/sorular.xlsx
@@ -1,75 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tahir\OneDrive\Masaüstü\Klasörler\Sirius\Bossai\BossAi-Otomasyon\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
-  </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>10 kereden fazla ödemesini geciktiren müşteri sayısı kaçtır ve isimleri nelerdir?</t>
-  </si>
-  <si>
-    <t>İstediğiniz kriterlere göre 339 müşteri buldum ve ödeme gecikme sayılarını hesapladım.
-1. Müşteri Adı: 3K MALZEMECİLİK SAN.TİC.LTD.ŞTİ
-   Toplam Gecikme: 34
-2. Müşteri Adı: 3SE YAPI KİMYASALLARI SANAYİ VE TİC.LTD.ŞTİ.
-   Toplam Gecikme: 12
-3. Müşteri Adı: ACAR YAPI  PVC-ÇELİK KAPI VE AKS. - ERHAN ACAR 
-   Toplam Gecikme: 31
-... ve 336 kayıt daha</t>
-  </si>
-  <si>
-    <t>Gecikmiş ödemeli en büyük 20 fatura hangileri?</t>
-  </si>
-  <si>
-    <t>İstediğiniz kriterlere göre 20 kayıt buldum
-1. Belge No: SVS2024000000079
-   Tarih: 29.03.2024
-   Vade Tarihi: 28.04.2024
-   Gecikme Gün: 436
-   Para Birimi: TL
-   Borç: 677.445,81
-   Bakiye: 205.782.184,13
-   Müşteri Adı: SANTEK SANAYI IMALATINS.MÜT.DEMIR HIRDV.TIC.LTD.STI.
-2. Belge No: SVS2024000000078
-   Tarih: 28.03.2024
-   Vade Tarihi: 27.04.2024
-   Gecikme Gün: 437
-   Para Birimi: TL
-   Borç: 706.037,77
-   Bakiye: 204.398.700,55
-   Müşteri Adı: SANTEK SANAYI IMALATINS.MÜT.DEMIR HIRDV.TIC.LTD.STI.
-3. Belge No: SVS2024000000077
-   Tarih: 27.03.2024
-   Vade Tarihi: 26.04.2024
-   Gecikme Gün: 438
-   Para Birimi: TL
-   Borç: 754.280,66
-   Bakiye: 202.260.936,31
-   Müşteri Adı: SANTEK SANAYI IMALATINS.MÜT.DEMIR HIRDV.TIC.LTD.STI.
-... ve 17 kayıt daha</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,25 +64,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -441,41 +396,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="73" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" xml:space="preserve">
+      <c r="A1" t="str">
+        <v>en fazla izin yapan 5 calışanım</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" t="str" xml:space="preserve">
+        <v xml:space="preserve">En fazla izin kullanan ilk 5 çalışanınızı kontrol ediyorum.
+1. Ad: İZAFETTİN
+   Soyad: CABA
+   Bölüm: TEL ÇEKME
+   Görev: SOMUN TEL ÇEKME OPERATÖRÜ
+   Kullanılan İzin: 141
+2. Ad: SAİT
+   Soyad: OĞUZ
+   Bölüm: ŞOFÖR
+   Görev: ŞOFÖR
+   Kullanılan İzin: 118
+3. Ad: CİHAT
+   Soyad: MERAL
+   Bölüm: TEL ÇEKME
+   Görev: FORMEN YARDIMCISI
+   Kullanılan İzin: 111
+... ve 2 kayıt daha</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>dünkü bakiyem nedir</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" t="str">
+        <v>Hangi bakiyeyi öğrenmek istiyorsunuz? Kasa mı, banka mı, yoksa toplam bakiye mi?</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B2" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sorular.xlsx
+++ b/sorular.xlsx
@@ -408,17 +408,20 @@
       </c>
       <c r="B1" t="str" xml:space="preserve">
         <v xml:space="preserve">En fazla izin kullanan ilk 5 çalışanınızı kontrol ediyorum.
-1. Ad: İZAFETTİN
+1. TC Kimlik No: 15548212402
+   Ad: İZAFETTİN
    Soyad: CABA
    Bölüm: TEL ÇEKME
    Görev: SOMUN TEL ÇEKME OPERATÖRÜ
    Kullanılan İzin: 141
-2. Ad: SAİT
+2. TC Kimlik No: 36820502882
+   Ad: SAİT
    Soyad: OĞUZ
    Bölüm: ŞOFÖR
    Görev: ŞOFÖR
    Kullanılan İzin: 118
-3. Ad: CİHAT
+3. TC Kimlik No: 43606402342
+   Ad: CİHAT
    Soyad: MERAL
    Bölüm: TEL ÇEKME
    Görev: FORMEN YARDIMCISI

--- a/sorular.xlsx
+++ b/sorular.xlsx
@@ -1,41 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tahir\OneDrive\Masaüstü\Klasörler\Sirius\Bossai\BossAi-Otomasyon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+  </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>Hangi bankada bugün en yüksek POS girişi gerçekleşti?</t>
+  </si>
+  <si>
+    <t>Günlük bazda hangi bankada giriş-çıkış farkı en yüksek?</t>
+  </si>
+  <si>
+    <t>SORULAR</t>
+  </si>
+  <si>
+    <t>GİTMESİ GEREKEN RAPOR</t>
+  </si>
+  <si>
+    <t>GİTTİĞİ RAPOR</t>
+  </si>
+  <si>
+    <t>CEVAP</t>
+  </si>
+  <si>
+    <t>EŞLEŞİYOR MU?</t>
+  </si>
+  <si>
+    <t>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,16 +57,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,18 +87,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,50 +476,3638 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="39.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="81.75" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" xml:space="preserve">
-      <c r="A1" t="str">
-        <v>en fazla izin yapan 5 calışanım</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
       </c>
-      <c r="B1" t="str" xml:space="preserve">
-        <v xml:space="preserve">En fazla izin kullanan ilk 5 çalışanınızı kontrol ediyorum.
-1. TC Kimlik No: 15548212402
-   Ad: İZAFETTİN
-   Soyad: CABA
-   Bölüm: TEL ÇEKME
-   Görev: SOMUN TEL ÇEKME OPERATÖRÜ
-   Kullanılan İzin: 141
-2. TC Kimlik No: 36820502882
-   Ad: SAİT
-   Soyad: OĞUZ
-   Bölüm: ŞOFÖR
-   Görev: ŞOFÖR
-   Kullanılan İzin: 118
-3. TC Kimlik No: 43606402342
-   Ad: CİHAT
-   Soyad: MERAL
-   Bölüm: TEL ÇEKME
-   Görev: FORMEN YARDIMCISI
-   Kullanılan İzin: 111
-... ve 2 kayıt daha</v>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>dünkü bakiyem nedir</v>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
       </c>
-      <c r="B2" t="str">
-        <v>Hangi bakiyeyi öğrenmek istiyorsunuz? Kasa mı, banka mı, yoksa toplam bakiye mi?</v>
+      <c r="D1" s="7" t="s">
+        <v>6</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="8"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="8"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="8"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="8"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="8"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="8"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="8"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="8"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="8"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="8"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="8"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="8"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="8"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="8"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="8"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="8"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="8"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="8"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="8"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="8"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="8"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="8"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="8"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="8"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="8"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="8"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="8"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="3"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="3"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="3"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="3"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="3"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="3"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="3"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="3"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="3"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="3"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="3"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="3"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="3"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="3"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="3"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="3"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="3"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="3"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="3"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="3"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="3"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="3"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="3"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="3"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="3"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="3"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="3"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="3"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="3"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="3"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="3"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="3"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="3"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="3"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="3"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="3"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="3"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="3"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="3"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="3"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="3"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="3"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="3"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="3"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="3"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="3"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="3"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="3"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="3"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="3"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="3"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="3"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="3"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="3"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="3"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="3"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="3"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="3"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="3"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="3"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="3"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="3"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="3"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="3"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="3"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="3"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="3"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="3"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="3"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="3"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="3"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="3"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="3"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="3"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="3"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="3"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="3"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="3"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="3"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="3"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="3"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="3"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="3"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="3"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="3"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="3"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="3"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="3"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="3"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="3"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="3"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="3"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="3"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="3"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="3"/>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="3"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="3"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="3"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="3"/>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="3"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="3"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="3"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="3"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="3"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="3"/>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="3"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="3"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="3"/>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="3"/>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="3"/>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="3"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="3"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="3"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="3"/>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="3"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="3"/>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="3"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="3"/>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="3"/>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="3"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="3"/>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="3"/>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="3"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="3"/>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="3"/>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="3"/>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="3"/>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="3"/>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="3"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="3"/>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="3"/>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="3"/>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="3"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="3"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="3"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="3"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="3"/>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="3"/>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="3"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="3"/>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="3"/>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="3"/>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="3"/>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="3"/>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="3"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="3"/>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="3"/>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="3"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="3"/>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="3"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="3"/>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="3"/>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="3"/>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="3"/>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="3"/>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="3"/>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="3"/>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="3"/>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="3"/>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="3"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="3"/>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="3"/>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="3"/>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="3"/>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="3"/>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="3"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="3"/>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="3"/>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="3"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="3"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="3"/>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="3"/>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="3"/>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="3"/>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="3"/>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="3"/>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="3"/>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="3"/>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="3"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="3"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="3"/>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="3"/>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="3"/>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="3"/>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="3"/>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="3"/>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="3"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="3"/>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="3"/>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="3"/>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="3"/>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="3"/>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="3"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="3"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="3"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="3"/>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="3"/>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="3"/>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="3"/>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="3"/>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="3"/>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="3"/>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="3"/>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="3"/>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="3"/>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="3"/>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="3"/>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" s="3"/>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" s="3"/>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" s="3"/>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" s="3"/>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" s="3"/>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" s="3"/>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" s="3"/>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" s="3"/>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" s="3"/>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" s="3"/>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" s="3"/>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" s="3"/>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" s="3"/>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" s="3"/>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" s="3"/>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" s="3"/>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" s="3"/>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" s="3"/>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" s="3"/>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" s="3"/>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" s="3"/>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" s="3"/>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" s="3"/>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="3"/>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="3"/>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" s="3"/>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" s="3"/>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" s="3"/>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" s="3"/>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" s="3"/>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" s="3"/>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" s="3"/>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" s="3"/>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" s="3"/>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" s="3"/>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" s="3"/>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" s="3"/>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" s="3"/>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" s="3"/>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" s="3"/>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" s="3"/>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" s="3"/>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="3"/>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" s="3"/>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" s="3"/>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" s="3"/>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" s="3"/>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" s="3"/>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" s="3"/>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" s="3"/>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" s="3"/>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" s="3"/>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" s="3"/>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" s="3"/>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" s="3"/>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" s="3"/>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="3"/>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" s="3"/>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" s="3"/>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" s="3"/>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" s="3"/>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" s="3"/>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" s="3"/>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" s="3"/>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" s="3"/>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" s="3"/>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" s="3"/>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" s="3"/>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" s="3"/>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" s="3"/>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" s="3"/>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" s="3"/>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" s="3"/>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" s="3"/>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" s="3"/>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" s="3"/>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" s="3"/>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" s="3"/>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" s="3"/>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" s="3"/>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" s="3"/>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" s="3"/>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" s="3"/>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" s="3"/>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" s="3"/>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" s="3"/>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" s="3"/>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" s="3"/>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" s="3"/>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" s="3"/>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" s="3"/>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" s="3"/>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" s="3"/>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" s="3"/>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" s="3"/>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" s="3"/>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" s="3"/>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" s="3"/>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" s="3"/>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" s="3"/>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" s="3"/>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" s="3"/>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" s="3"/>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" s="3"/>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" s="3"/>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" s="3"/>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" s="3"/>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" s="3"/>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" s="3"/>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" s="3"/>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" s="3"/>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" s="3"/>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" s="3"/>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" s="3"/>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" s="3"/>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" s="3"/>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" s="3"/>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" s="3"/>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" s="3"/>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" s="3"/>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" s="3"/>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" s="3"/>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" s="3"/>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" s="3"/>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" s="3"/>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" s="3"/>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" s="3"/>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" s="3"/>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" s="3"/>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" s="3"/>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" s="3"/>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" s="3"/>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" s="3"/>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" s="3"/>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" s="3"/>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" s="3"/>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" s="3"/>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" s="3"/>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" s="3"/>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" s="3"/>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" s="3"/>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" s="3"/>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" s="3"/>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" s="3"/>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" s="3"/>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" s="3"/>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" s="3"/>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" s="3"/>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" s="3"/>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" s="3"/>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" s="3"/>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" s="3"/>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" s="3"/>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" s="3"/>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" s="3"/>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" s="3"/>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" s="3"/>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" s="3"/>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" s="3"/>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" s="3"/>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" s="3"/>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" s="3"/>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" s="3"/>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" s="3"/>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" s="3"/>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" s="3"/>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" s="3"/>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" s="3"/>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" s="3"/>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" s="3"/>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" s="3"/>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" s="3"/>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" s="3"/>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" s="3"/>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" s="3"/>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" s="3"/>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" s="3"/>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" s="3"/>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" s="3"/>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" s="3"/>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" s="3"/>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" s="3"/>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" s="3"/>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" s="3"/>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" s="3"/>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" s="3"/>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" s="3"/>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" s="3"/>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" s="3"/>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" s="3"/>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" s="3"/>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" s="3"/>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" s="3"/>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" s="3"/>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" s="3"/>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" s="3"/>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" s="3"/>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" s="3"/>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" s="3"/>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" s="3"/>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" s="3"/>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" s="3"/>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" s="3"/>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" s="3"/>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" s="3"/>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" s="3"/>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" s="3"/>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" s="3"/>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" s="3"/>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" s="3"/>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" s="3"/>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" s="3"/>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" s="3"/>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" s="3"/>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" s="3"/>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" s="3"/>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" s="3"/>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" s="3"/>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" s="3"/>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" s="3"/>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" s="3"/>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" s="3"/>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" s="3"/>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" s="3"/>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" s="3"/>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" s="3"/>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" s="3"/>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" s="3"/>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" s="3"/>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" s="3"/>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" s="3"/>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" s="3"/>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" s="3"/>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" s="3"/>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" s="3"/>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" s="3"/>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" s="3"/>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" s="3"/>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" s="3"/>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" s="3"/>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" s="3"/>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" s="3"/>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" s="3"/>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" s="3"/>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" s="3"/>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" s="3"/>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" s="3"/>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787" s="3"/>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" s="3"/>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" s="3"/>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" s="3"/>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" s="3"/>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792" s="3"/>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" s="3"/>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" s="3"/>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" s="3"/>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" s="3"/>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" s="3"/>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" s="3"/>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" s="3"/>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" s="3"/>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" s="3"/>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" s="3"/>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" s="3"/>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" s="3"/>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" s="3"/>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" s="3"/>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" s="3"/>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" s="3"/>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" s="3"/>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" s="3"/>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" s="3"/>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" s="3"/>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" s="3"/>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" s="3"/>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" s="3"/>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" s="3"/>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817" s="3"/>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" s="3"/>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819" s="3"/>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820" s="3"/>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" s="3"/>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822" s="3"/>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" s="3"/>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" s="3"/>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" s="3"/>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" s="3"/>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" s="3"/>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" s="3"/>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829" s="3"/>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" s="3"/>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" s="3"/>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832" s="3"/>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" s="3"/>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" s="3"/>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" s="3"/>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" s="3"/>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" s="3"/>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" s="3"/>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" s="3"/>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" s="3"/>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" s="3"/>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" s="3"/>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" s="3"/>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" s="3"/>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" s="3"/>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" s="3"/>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" s="3"/>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" s="3"/>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" s="3"/>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" s="3"/>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" s="3"/>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" s="3"/>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" s="3"/>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" s="3"/>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" s="3"/>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" s="3"/>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" s="3"/>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" s="3"/>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" s="3"/>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" s="3"/>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" s="3"/>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" s="3"/>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" s="3"/>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" s="3"/>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" s="3"/>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" s="3"/>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" s="3"/>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" s="3"/>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" s="3"/>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" s="3"/>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871" s="3"/>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872" s="3"/>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873" s="3"/>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874" s="3"/>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" s="3"/>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" s="3"/>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" s="3"/>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" s="3"/>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" s="3"/>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880" s="3"/>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881" s="3"/>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" s="3"/>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" s="3"/>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" s="3"/>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885" s="3"/>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886" s="3"/>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" s="3"/>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888" s="3"/>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889" s="3"/>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890" s="3"/>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891" s="3"/>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892" s="3"/>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893" s="3"/>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" s="3"/>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895" s="3"/>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896" s="3"/>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897" s="3"/>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898" s="3"/>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899" s="3"/>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900" s="3"/>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901" s="3"/>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902" s="3"/>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903" s="3"/>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904" s="3"/>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905" s="3"/>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906" s="3"/>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907" s="3"/>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908" s="3"/>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909" s="3"/>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" s="3"/>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911" s="3"/>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912" s="3"/>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913" s="3"/>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914" s="3"/>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915" s="3"/>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916" s="3"/>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917" s="3"/>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918" s="3"/>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919" s="3"/>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920" s="3"/>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921" s="3"/>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922" s="3"/>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923" s="3"/>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924" s="3"/>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925" s="3"/>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926" s="3"/>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927" s="3"/>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928" s="3"/>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929" s="3"/>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930" s="3"/>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931" s="3"/>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932" s="3"/>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933" s="3"/>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934" s="3"/>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935" s="3"/>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936" s="3"/>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937" s="3"/>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938" s="3"/>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939" s="3"/>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" s="3"/>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941" s="3"/>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942" s="3"/>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943" s="3"/>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944" s="3"/>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945" s="3"/>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946" s="3"/>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947" s="3"/>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948" s="3"/>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949" s="3"/>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950" s="3"/>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951" s="3"/>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952" s="3"/>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953" s="3"/>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954" s="3"/>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955" s="3"/>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956" s="3"/>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957" s="3"/>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958" s="3"/>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959" s="3"/>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960" s="3"/>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961" s="3"/>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962" s="3"/>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963" s="3"/>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964" s="3"/>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965" s="3"/>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966" s="3"/>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967" s="3"/>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968" s="3"/>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969" s="3"/>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970" s="3"/>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971" s="3"/>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972" s="3"/>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973" s="3"/>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974" s="3"/>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975" s="3"/>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976" s="3"/>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A977" s="3"/>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978" s="3"/>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979" s="3"/>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980" s="3"/>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981" s="3"/>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982" s="3"/>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983" s="3"/>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984" s="3"/>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A985" s="3"/>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986" s="3"/>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A987" s="3"/>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988" s="3"/>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A989" s="3"/>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A990" s="3"/>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A991" s="3"/>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A992" s="3"/>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A993" s="3"/>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A994" s="3"/>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A995" s="3"/>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A996" s="3"/>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A997" s="3"/>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A998" s="3"/>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A999" s="3"/>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1000" s="3"/>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1001" s="3"/>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sorular.xlsx
+++ b/sorular.xlsx
@@ -397,52 +397,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
-    <row r="1" xml:space="preserve">
+    <row r="1">
       <c r="A1" t="str">
+        <v>SORULAR</v>
+      </c>
+      <c r="B1" t="str">
+        <v>GİTMESİ GEREKEN RAPOR</v>
+      </c>
+      <c r="C1" t="str">
+        <v>GİTTİĞİ RAPOR</v>
+      </c>
+      <c r="D1" t="str">
+        <v>EŞLEŞTİ Mİ?</v>
+      </c>
+      <c r="E1" t="str">
+        <v>CEVAP</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str">
         <v>Hangi bankada bugün en yüksek POS girişi gerçekleşti?</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B2" t="str">
         <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
       </c>
-      <c r="C1" t="str" xml:space="preserve">
+      <c r="C2" t="str" xml:space="preserve">
         <v xml:space="preserve">
                     📁 Günlük POS İşlemleri ve Banka Bazlı Toplamlar
           </v>
       </c>
-      <c r="D1" t="str">
+      <c r="D2" t="str">
         <v>EVET</v>
       </c>
-      <c r="E1" t="str">
-        <v>Bugün en yüksek POS girişi olan banka VAKIFBANK POS HESABI, 1,394,500.07 TL ile öne çıkıyor.</v>
+      <c r="E2" t="str">
+        <v>Bugün en yüksek POS girişi olan banka Ziraat Bankası, toplam girişi 590,040.30 TL.</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
-      <c r="A2" t="str">
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
         <v>Günlük bazda hangi bankada giriş-çıkış farkı en yüksek?</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B3" t="str">
         <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
       </c>
-      <c r="C2" t="str" xml:space="preserve">
+      <c r="C3" t="str" xml:space="preserve">
         <v xml:space="preserve">
-                    📁 Günlük Kasa ve Banka Ozet Raporu
+                    📁 Günlük POS İşlemleri ve Banka Bazlı Toplamlar
           </v>
       </c>
-      <c r="D2" t="str">
-        <v>HAYIR</v>
-      </c>
-      <c r="E2" t="str">
-        <v>📊 No results found for your criteria.</v>
+      <c r="D3" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Bugün bankalara göre en yüksek günlük giriş-çıkış farkı (net) AKBANK POS HS. ile -4,276,583.43 TL olarak kaydedilmiştir.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sorular.xlsx
+++ b/sorular.xlsx
@@ -1,41 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tahir\OneDrive\Masaüstü\Klasörler\Sirius\Bossai\BossAi-Otomasyon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12165"/>
+  </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="BOT_CEVAPLAR" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+  <si>
+    <t>SORULAR</t>
+  </si>
+  <si>
+    <t>GİTMESİ GEREKEN RAPOR</t>
+  </si>
+  <si>
+    <t>GİTTİĞİ RAPOR</t>
+  </si>
+  <si>
+    <t>EŞLEŞTİ Mİ?</t>
+  </si>
+  <si>
+    <t>CEVAP</t>
+  </si>
+  <si>
+    <t>Hangi bankada bugün en yüksek POS girişi gerçekleşti?</t>
+  </si>
+  <si>
+    <t>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                    📁 Günlük POS İşlemleri ve Banka Bazlı Toplamlar
+          </t>
+  </si>
+  <si>
+    <t>EVET</t>
+  </si>
+  <si>
+    <t>Günlük bazda hangi bankada giriş-çıkış farkı en yüksek?</t>
+  </si>
+  <si>
+    <t>Bugün en yüksek POS girişi Ziraat Bankası'ndan, toplam 614,790.30 TL olarak gerçekleşmiştir.</t>
+  </si>
+  <si>
+    <t>Bugünkü banka bazlı girişler ve çıkışlar farkı en yüksek banka "AKBANK POS HS." olup, fark tutarı -4,276,583.43 TL'dir.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +101,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,70 +433,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.625" customWidth="1"/>
+    <col min="2" max="2" width="57.875" customWidth="1"/>
+    <col min="3" max="3" width="34.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:B3" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="37.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>SORULAR</v>
-      </c>
-      <c r="B1" t="str">
-        <v>GİTMESİ GEREKEN RAPOR</v>
-      </c>
-      <c r="C1" t="str">
-        <v>GİTTİĞİ RAPOR</v>
-      </c>
-      <c r="D1" t="str">
-        <v>EŞLEŞTİ Mİ?</v>
-      </c>
-      <c r="E1" t="str">
-        <v>CEVAP</v>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
-      <c r="A2" t="str">
-        <v>Hangi bankada bugün en yüksek POS girişi gerçekleşti?</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
-      </c>
-      <c r="C2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    📁 Günlük POS İşlemleri ve Banka Bazlı Toplamlar
-          </v>
-      </c>
-      <c r="D2" t="str">
-        <v>EVET</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Bugün en yüksek POS girişi olan banka Ziraat Bankası, toplam girişi 590,040.30 TL.</v>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
-        <v>Günlük bazda hangi bankada giriş-çıkış farkı en yüksek?</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
-      </c>
-      <c r="C3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-                    📁 Günlük POS İşlemleri ve Banka Bazlı Toplamlar
-          </v>
-      </c>
-      <c r="D3" t="str">
-        <v>EVET</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Bugün bankalara göre en yüksek günlük giriş-çıkış farkı (net) AKBANK POS HS. ile -4,276,583.43 TL olarak kaydedilmiştir.</v>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError sqref="A1:E3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sorular.xlsx
+++ b/sorular.xlsx
@@ -1,70 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tahir\OneDrive\Masaüstü\Klasörler\Sirius\Bossai\BossAi-Otomasyon\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12165"/>
-  </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="BOT_CEVAPLAR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
-  <si>
-    <t>SORULAR</t>
-  </si>
-  <si>
-    <t>GİTMESİ GEREKEN RAPOR</t>
-  </si>
-  <si>
-    <t>GİTTİĞİ RAPOR</t>
-  </si>
-  <si>
-    <t>EŞLEŞTİ Mİ?</t>
-  </si>
-  <si>
-    <t>CEVAP</t>
-  </si>
-  <si>
-    <t>Hangi bankada bugün en yüksek POS girişi gerçekleşti?</t>
-  </si>
-  <si>
-    <t>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                    📁 Günlük POS İşlemleri ve Banka Bazlı Toplamlar
-          </t>
-  </si>
-  <si>
-    <t>EVET</t>
-  </si>
-  <si>
-    <t>Günlük bazda hangi bankada giriş-çıkış farkı en yüksek?</t>
-  </si>
-  <si>
-    <t>Bugün en yüksek POS girişi Ziraat Bankası'ndan, toplam 614,790.30 TL olarak gerçekleşmiştir.</t>
-  </si>
-  <si>
-    <t>Bugünkü banka bazlı girişler ve çıkışlar farkı en yüksek banka "AKBANK POS HS." olup, fark tutarı -4,276,583.43 TL'dir.</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,14 +73,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -433,119 +397,4089 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="67.625" customWidth="1"/>
-    <col min="2" max="2" width="57.875" customWidth="1"/>
-    <col min="3" max="3" width="34.625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>SORULAR</v>
+      </c>
+      <c r="B1" t="str">
+        <v>GİTMESİ GEREKEN RAPOR</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Hangi bankada bugün en yüksek POS girişi gerçekleşti?</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Günlük bazda hangi bankada giriş-çıkış farkı en yüksek?</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Hangi işlem türünde (tahsilat, komisyon, iade vb.) en fazla tutar oluştu?</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Günlük banka toplamında negatif bakiye oluşan günler hangileri?</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Bugün toplam POS tahsilatı ne kadar?</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Hangi banka en yüksek tahsilatı yaptı?</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Negatif bakiye oluşan banka var mı?</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Risk kategorilerine göre müşteri sayıları kaçtır?</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Yaşlandırma Raporu</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Dün kasadan toplam ne kadar para çıkışı oldu?</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Günlük Kasa ve Banka Ozet Raporu</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Dün itibariyle kasamda toplam ne kadar para var?</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Günlük Kasa ve Banka Ozet Raporu</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Dün kasaya toplam ne kadar giriş oldu ve hangi kalemlerden kaynaklandı?</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Günlük Kasa ve Banka Ozet Raporu</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Kasa gün sonunda eksiye düşmüş mü? Bu durum düzenli tekrar ediyor mu?</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Günlük Kasa ve Banka Ozet Raporu</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Dün kasaya toplam ne kadar para girişi oldu?</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Günlük Kasa ve Banka Ozet Raporu</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Bu hafta vadesi gelen faturaların toplam tutarı ne kadar?</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Hangi müşterilerden bu hafta ödeme bekliyoruz?</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>ÇEK ödemeli faturaların bu haftaki tutarı nedir?</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Bu hafta TL cinsinden ne kadar tahsilat beklenebilir?</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Döviz cinsinden bu hafta gelecek ödemeler ne kadar?</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Hangi ödeme şekilleri bu hafta daha yoğun?</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Dün vadesi gelen ancak ödenmeyen faturalar hangileri?</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Vadesi Geçmiş Alacak Maili (İç Yazışma)</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Gecikmeli ödemelerin toplam tutarı ne kadar?</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Alacak Takip Raporu</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>10 kereden fazla ödemesini geciktiren müşteri sayısı kaçtır ve isimleri nelerdir?</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Alacak Takip Raporu</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Vadesi henüz gelmemiş alacaklarımızın toplamı nedir?</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Alacak Takip Raporu</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Sene başından beri toplam satışı en fazla olan bölge hangisidir</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Geçen ay en fazla satış yapan satış sorumlusu kimdir</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Geçen ay en fazla satış yapan ilk 3 satış sorumlusu kimdir</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Geçen ay en az satış yapan satış sorumlusu kimdir</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Geçen ay toplam satışım ne kadar</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Sene başından beri toplam satışım ne kadar</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Sene başından beri en fazla satışı hangi ay, hangi satış sorumlusu yaptı</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Sene başından beri en fazla hangi ana ürün grubundan ne kadar satış yaptım</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Sene başından beri en fazla satış yaptığım 3 ana malzeme grubu nedir</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Sene başından beri en az satış yaptığım 3 ana malzeme grubu nedir</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Geçen ay en fazla hangi ana malzemeden grubundan satış yaptım</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Sene başından beri en fazla satış yaptığım 3 müşterim kimdir</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Sene başından beri en fazla satış yaptığım 3 yurt içi müşterim kimdir</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Sene başından beri en az satış yaptığım 3 yurt içi müşterim kimdir</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Tutarsal olarak geçen ay en fazla vida satışı yaptığım ilk 5 firma hangisidir</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Haziran ayından tutarsal olarak en fazla çivi satışı yaptığım ilk 5 firma hangisidir</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Bu satışları yapmak için sene başından beri toplam kaç fatura kestim</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Ham malzemeler hariç Fatura sayısına göre birim ortalama satış fiyatı en yüksek olan ana malzeme grubu ve ortalama satış fiyatı kaçtır?</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>En çok tahsilat gelen 3 günü ve ödeme yöntemlerini listeler misin?</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Bugün havale ile kaç lira ödeme geldi?</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Haziran ayı toplam gelen tutar ne kadar?</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Çek tahsilatlarının en yoğun olduğu günler</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Nakit çıkışları en yoğun hangi aylarda gerçekleşti?</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Günlük Kasa ve Banka Ozet Raporu</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Sene başından beri hangi ödeme kanalı en çok kullanılmış (nakit, havale, kredi kartı)?</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Geçen hafta kredi kartıyla yapılan ödeme ne kadardı?</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Hangi günlerde nakit kasa ödemeleri daha fazla olmuş?</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Günlük Kasa ve Banka Ozet Raporu</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Banka üzerinden kaç fatura ödemesi yapılmış bu yıl?</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Günlük Kasa ve Banka Ozet Raporu</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Toplam fatura sayısı 100 üzerinde olup tam vadesine %100 uyan müşterilerim kimlerdir.</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Müşteri Ödeme Performansı</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="A53" t="str" xml:space="preserve">
+        <v xml:space="preserve">Toplam fatura sayısı 100 üzerinde olup ödeme vade performansı en kötü müşterim kimdir ? _x000d__x000d__x000d__x000d_
+bu müşterime ne kadarlık fatura kestim?</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Müşteri Ödeme Performansı</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>En fazla fatura kestiğim müşterimin genel fatura performansı kaçtır?</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Müşteri Ödeme Performansı</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>En fazla fatura kestiğim ikinci müşterimin vade performansı kaçtır</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Müşteri Ödeme Performansı</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Hangi ürünlerin siparişi acil verilmeli?</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Aylık Malzeme Girişi ve Çıkışı Kontrolü (SATIN ALMA)</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Her üründen ne kadar sipariş verilmeli?</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Aylık Malzeme Girişi ve Çıkışı Kontrolü (SATIN ALMA)</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Güvenlik stoku seviyeleri ne olmalı?</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Aylık Malzeme Girişi ve Çıkışı Kontrolü (SATIN ALMA)</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Hangi tedarikçilerle çalışılıyor?</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Aylık Malzeme Girişi ve Çıkışı Kontrolü (SATIN ALMA)</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Hangi bankada ne kadar TL, USD veya EURO var?</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Banka Durumları</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Kredi veya teminat dışı hesaplar ne durumda?</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Banka Durumları</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Son 30/60/90 gün içinde tahsil edilemeyen çekler hangileri?</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Müşteri çekleri (Çek kaybolması)</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Toplam çek portföyü ne kadarlık bir tutarı kapsıyor?</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Müşteri çekleri (Çek kaybolması)</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>A sınıfına giren ürünler hangileridir ve bunların ortalama birim fiyatı nedir?</v>
+      </c>
+      <c r="B64" t="str">
+        <v>ABC Analizin (GENEL)</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Bütçe planlaması açısından hangi kalemler daha yakından takip edilmelidir?</v>
+      </c>
+      <c r="B65" t="str">
+        <v>ABC Analizin (GENEL)</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Bugün hangi müşteriden hangi ürün için kaç adet sipariş alındı?</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Günlük Satış Sipariş Raporu</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Hangi müşteriler bugün en çok sipariş verdi?</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Günlük Satış Sipariş Raporu</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Bu yıl genel alacak tutarım ne kadar ve bunun ne kadarı dövizli?</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Alacak Takip Raporu (GENEL)</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Bu yıl TL ve döviz bazlı açık bakiyesi en fazla olan müşteriler kimler?</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Alacak Takip Raporu (GENEL)</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Bu yıl Tahsilat durumu satış temsilcilerine göre nasıl değişiyor?</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Alacak Takip Raporu (GENEL)</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Dün çek/havale ile ödeme yapan müşteriler kimler?</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Dün tahsil edilen faturalardan kalan bakiye 10 TL’den fazla olanlar hangileri?</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Dün yapılan toplam tahsilat tutarı neydi (TL ve döviz)?</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Dün Tahsil edilen fatura tutarlarının döviz/TL dağılımı nedir?</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Bu hafta tahsil etmem gereken yurt içi ve yurt dışı alacaklarım neler?</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>120.001 veya 120.002 ile başlayan cari hesaplar arasında bu hafta ödemesi olanlar kimler?</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Cari bakiyesi olup da bu hafta ödemesi olan müşterilerim kimler?</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Bu hafta çek, havale ya da peşin ile ödenecek faturalar hangileri?</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Toplam bu hafta tahsil edilmesi gereken TL ve döviz tutarı nedir?</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Hangi malzemelerin stok seviyesi emniyet stok seviyesinin altındadır?</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Stok Seviyesi (Azami&amp;Asgari&amp;Emniyet) Kontrolü (Ticari Mal)</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Kritik stok seviyesine ulaşan tüketim malları nelerdir?</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Depo stok Tutarı Raporu (Sarf ve Tüketim)</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Stok değeri en yüksek olan 10 ürün hangisi?</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Malzeme Stok Raporu</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Hangi malzeme türlerinde stok riski daha fazladır?</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Malzeme Stok Raporu</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Güncel stoklar azami stok seviyesini aşmış mı?</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Stok Seviyesi (Azami&amp;Asgari&amp;Emniyet) Kontrolü (Ticari Mal)</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Ana birime göre çevrim faktörleriyle hesaplanan stok durumları nelerdir?</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Malzeme Stok Raporu</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Bekleyen irsaliyeler toplam kaç kalemden oluşmaktadır?</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Faturalandırılmamış İrsaliye Raporu</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Faturalandırılmayan irsaliyelerde toplam ne kadar ürün ve tutar söz konusudur?</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Faturalandırılmamış İrsaliye Raporu</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Bekleme sürelerine göre hangi irsaliyeler kritik seviyededir? (örn. 60 günü aşanlar)</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Faturalandırılmamış İrsaliye Raporu</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Bu carilerin bağlı olduğu nakliye firması bilgisi nedir?</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Lojistik Masrafları</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Bugün itibariyle bu carilerden hangilerine fatura kesildi?</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Lojistik Masrafları</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Kesilen faturaların tutarları nedir ve hangi carilere ait?</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Lojistik Masrafları</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Peşin ödeme anlaşmalı faturalarda gecikme var mı?</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Müşteri Ödeme Performans Raporu</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>bu yıl Ortalama müşteri ödeme performansım nedir?</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Müşteri Ödeme Performans Raporu</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>bu yıl Zamanında ödeme yapan müşterilerim kimler?</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Müşteri Ödeme Performans Raporu</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Bu ay kaç kişi işten ayrıldı?</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Turnover Yorumlama Raporu</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Hangi bölümlerde turnover oranı daha yüksek?</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Turnover Yorumlama Raporu</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>İşten ayrılmaların ana sebepleri neler?</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Turnover Yorumlama Raporu</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Mevcut aktif personele göre bu ayki turnover oranımız nedir?</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Turnover Yorumlama Raporu</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Yıllık bazda devam ederse turnover % kaç olur?</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Turnover Yorumlama Raporu</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Hangi bölümler kritik seviyede risk taşıyor?</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Turnover Yorumlama Raporu</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Dönem içinde hangi ÖTV hesaplarında (126'lı hesaplarda) hareket oluşmuş?</v>
+      </c>
+      <c r="B101" t="str">
+        <v>ÖTV takibi</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Hangi ÖTV hesaplarının dönem sonu bakiyesi borç, hangileri alacak?</v>
+      </c>
+      <c r="B102" t="str">
+        <v>ÖTV takibi</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>ÖTV hesaplarının toplam borç, toplam alacak ve net bakiye tutarları nedir?</v>
+      </c>
+      <c r="B103" t="str">
+        <v>ÖTV takibi</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>bu yıl ÖTV alacaklarımız mı fazla yoksa tahsil edilmemiş borçlarımız mı var?</v>
+      </c>
+      <c r="B104" t="str">
+        <v>ÖTV takibi</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Hangi bankada hangi türde kredi hesabımız var?</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Kredi ödemeler takibi</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Hangi krediler TL, hangileri döviz bazlı?</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Kredi ödemeler takibi</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>ROTATİF kredi hesaplarının toplam bakiyesi nedir?</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Kredi ödemeler takibi</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>TEMİNAT ve SPOT kredilerimiz hangi bankada bulunuyor ve ne kadar bakiye var?</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Kredi ödemeler takibi</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>bu yıl ÇEK hesaplarımızın borç bakiyesi nedir?</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Müşteri çekleri (Çek kaybolması)</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>bu yıl Genel olarak tüm kredi hesaplarının toplam borç yükü ne kadar?</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Kredi ödemeler takibi</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>bu yıl Hangi kredilerin bakiyeleri kritik seviyede artmış durumda?</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Kredi ödemeler takibi</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Bu yıl Leasing ödemelerinin faiz, KKDF, BSMV ve KDV gibi kalemlerdeki yükü nedir?</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Leasing ödemeleri takibi</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Bu yıl Leasing ödemeleri ağırlıklı olarak hangi döviz cinsinden yapılmaktadır?</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Leasing ödemeleri takibi</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Bu yıl Toplam leasing işlem sayısı, toplam ödeme ve toplam maliyet tutarı ne kadardır?</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Leasing ödemeleri takibi</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Hangi ham madde ve tüketim malzemeleri 6 aydan uzun süredir stokta hareketsiz durumdadır?</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Durağan Malzeme Bildirimleri (Tüketim ve Ham Malzeme)</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Bu ürünlerin mevcut stok miktarı ve birimleri nelerdir?</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Durağan Malzeme Bildirimleri (Tüketim ve Ham Malzeme)</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Durağan ürünlerin stok toplamı nedir?</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Durağan Malzeme Bildirimleri (Tüketim ve Ham Malzeme)</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>En eski ilk hareket tarihi olan WIP ürünleri hangileri?</v>
+      </c>
+      <c r="B118" t="str">
+        <v>WIP Takip Raporu</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Hangi malzemelerde %80’den fazla WIP oranı var?</v>
+      </c>
+      <c r="B119" t="str">
+        <v>WIP Takip Raporu</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>2025 yılında kaç farklı tedarikçiden teklif aldık</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Verilen tekliflerin birim fiyatına göre kıyaslama</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Bu yıl Hangi malzemelerde fiyat farkı %20’nin üzerinde çıkmış?</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Verilen tekliflerin birim fiyatına göre kıyaslama</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Yılbaşından bugüne en fazla gelir elde eden şubeler hangileri?</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Şube Bazlı Gelir Gider Kıyaslaması</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Hangi masraf merkezlerinde gider yoğunluğu var? Geçen yıla göre değişim nasıl?</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Bölüm bazlı gider kontrolü (ekipmani çalışan ve malzeme),</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Bu yıl Hangi masraf merkezleri en büyük gider kalemleri olarak öne çıkıyor?</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Bölüm bazlı gider kontrolü (ekipmani çalışan ve malzeme),</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Ay bazında, tüm araçlar için toplam bakım masrafı ne kadar olmuş?</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Araç masraf ve bakım takip raporu</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Bu yıl araçlara toplam ne kadar harcamışız?</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Araç masraf ve bakım takip raporu</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Hangi şubenin toplam gideri yılın ilk 6 ayında en yüksek?</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Sube Bazli Gider Raporu</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Hangi şubenin giderlerinde en büyük düşüş hangi ayda olmuş?</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Sube Bazli Gider Raporu</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Ocak ve Temmuz arasındaki toplam gider farkı ne kadar?</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Sube Bazli Gider Raporu</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>En yüksek tek ay gideri hangi şube ve hangi ayda gerçekleşmiş?</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Sube Bazli Gider Raporu</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>En yüksek gider hangi ayda olmuş?</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Sube Bazli Gider Raporu</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>bu yıl En düşük gider hangi şubede?</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Sube Bazli Gider Raporu</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>İlk 3 şube giderlerin yüzde kaçını yapıyor?</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Sube Bazli Gider Raporu</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Ortalama fiyatı en yüksek sarf malzeme hangisi?</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Sarf Malzeme Kontrol</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Hangi sarf malzemenin toplam girişi sıfır ama çıkışı var?</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Sarf Malzeme Kontrol</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Hangi hammaddeler hangi masraf merkezlerinde kullanılmış?</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Hammadde Kontrol</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Ortalama hammadde fiyatı nedir, toplam maliyet tutarı ne olmuştur?</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Hammadde Kontrol</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>dün itibarıyla toplam hammadde stoku ne kadardır?</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Hammadde Kontrol</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Geçen ay kim hangi tarihler arasında izin aldı?</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Personel Devamsızlık Raporu</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>En çok devamsızlık yapılan izin türü nedir?</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Personel Devamsızlık Raporu</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Bölümlere göre izin gün sayısı dağılımı nasıl?</v>
+      </c>
+      <c r="B141" t="str">
+        <v>Personel Devamsızlık Raporu</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Son ayda toplam kaç gün devamsızlık yaşandı?</v>
+      </c>
+      <c r="B142" t="str">
+        <v>Personel Devamsızlık Raporu</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>En çok devamsızlık yapan kim?</v>
+      </c>
+      <c r="B143" t="str">
+        <v>Personel Devamsızlık Raporu</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Hangi departmanda devamsızlık fazla?</v>
+      </c>
+      <c r="B144" t="str">
+        <v>Personel Devamsızlık Raporu</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Hangi depolar %90 ve üzeri dolu, yani kapasite riski taşıyor?</v>
+      </c>
+      <c r="B145" t="str">
+        <v>Depo Doluluk Oranı</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Hangi depolar %50’nin altında dolu, yani transfer veya konsolidasyon yapılabilir?</v>
+      </c>
+      <c r="B146" t="str">
+        <v>Depo Doluluk Oranı</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Depolarda kaç farklı malzeme çeşidi bulunuyor?</v>
+      </c>
+      <c r="B147" t="str">
+        <v>Depo Doluluk Oranı</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Bugün itibarıyla toplam stok TL tutarı nedir?</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Depo Doluluk Oranı</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B3" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B148"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="31.375" customWidth="1"/>
-    <col min="3" max="3" width="37.75" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>SORULAR</v>
+      </c>
+      <c r="B1" t="str">
+        <v>GİTMESİ GEREKEN RAPOR</v>
+      </c>
+      <c r="C1" t="str">
+        <v>GİTTİĞİ RAPOR</v>
+      </c>
+      <c r="D1" t="str">
+        <v>EŞLEŞTİ Mİ?</v>
+      </c>
+      <c r="E1" t="str">
+        <v>CEVAP</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str">
+        <v>Hangi bankada bugün en yüksek POS girişi gerçekleşti?</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
+      </c>
+      <c r="C2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük POS İşlemleri ve Banka Bazlı Toplamlar
+          </v>
+      </c>
+      <c r="D2" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Bugün en yüksek POS girişi Ziraat Bankası'na ait, toplam 721,320.53 TL.</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>Günlük bazda hangi bankada giriş-çıkış farkı en yüksek?</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
+      </c>
+      <c r="C3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük Kasa ve Banka Ozet Raporu
+          </v>
+      </c>
+      <c r="D3" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E3" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>Hangi işlem türünde (tahsilat, komisyon, iade vb.) en fazla tutar oluştu?</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
+      </c>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük POS İşlemleri ve Banka Bazlı Toplamlar
+          </v>
+      </c>
+      <c r="D4" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Bugün işlem türü bazında toplam tutar -7,932,452.97 TL olarak kaydedilmiştir.</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>Günlük banka toplamında negatif bakiye oluşan günler hangileri?</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
+      </c>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük Kasa ve Banka Ozet Raporu
+          </v>
+      </c>
+      <c r="D5" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Günlük banka toplamı negatif bakiye günü: 8178,70 TL.</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>Bugün toplam POS tahsilatı ne kadar?</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
+      </c>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük POS İşlemleri ve Banka Bazlı Toplamlar
+          </v>
+      </c>
+      <c r="D6" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Bugün POS tahsilatı toplam tutar 1,615,576.52 TL.</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>Hangi banka en yüksek tahsilatı yaptı?</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
+      </c>
+      <c r="C7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük Kasa ve Banka Ozet Raporu
+          </v>
+      </c>
+      <c r="D7" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E7" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>Negatif bakiye oluşan banka var mı?</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Günlük POS İşlemleri ve Banka Bazlı Toplamlar</v>
+      </c>
+      <c r="C8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Banka Durumları 
+          </v>
+      </c>
+      <c r="D8" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Hayır, negatif bakiye oluşan banka bulunmamaktadır.</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>Risk kategorilerine göre müşteri sayıları kaçtır?</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Yaşlandırma Raporu</v>
+      </c>
+      <c r="C9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Müşteri Ödeme Performans Raporu
+          </v>
+      </c>
+      <c r="D9" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Genel risk kategorisinde 3,958 müşteri bulunmaktadır.</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>Dün kasadan toplam ne kadar para çıkışı oldu?</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Günlük Kasa ve Banka Ozet Raporu</v>
+      </c>
+      <c r="C10" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük Kasa ve Banka Ozet Raporu
+          </v>
+      </c>
+      <c r="D10" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Dün kasa toplam çıkış tutarı için hiçbir kayıt bulunamadı.</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>Dün itibariyle kasamda toplam ne kadar para var?</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Günlük Kasa ve Banka Ozet Raporu</v>
+      </c>
+      <c r="C11" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük Kasa ve Banka Ozet Raporu
+          </v>
+      </c>
+      <c r="D11" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Dün kasa toplam bakiyesi için hiçbir kayıt bulunamadı.</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>Dün kasaya toplam ne kadar giriş oldu ve hangi kalemlerden kaynaklandı?</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Günlük Kasa ve Banka Ozet Raporu</v>
+      </c>
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük Kasa ve Banka Ozet Raporu
+          </v>
+      </c>
+      <c r="D12" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E12" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>Kasa gün sonunda eksiye düşmüş mü? Bu durum düzenli tekrar ediyor mu?</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Günlük Kasa ve Banka Ozet Raporu</v>
+      </c>
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük Kasa ve Banka Ozet Raporu
+          </v>
+      </c>
+      <c r="D13" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Gün sonu negatif bakiye durumu olan hesaplar arasında AKBANK-TL (-4,132.68 TL), İŞBANK TL (-3,676.29 TL), AKBANK-USD (-2,903.03 TL), ZİRAAT BANKASI TL (-2,382.28 TL), ZİRAAT BANKASI USD (-887.57 TL), DENİZBANK MAAŞ HESABI (-747.07 TL), UĞUR ÇALIŞÇI (-500.00 TL), HÜSEYİN GEÇER (-363.99 TL), Gün Toplamı (-235.64 TL) ve KUVEYTTÜRK TL (-168.95 TL) yer alıyor; düzenli ve tekrar işlemler ise hiç bulunmamaktadır!</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>Dün kasaya toplam ne kadar para girişi oldu?</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Günlük Kasa ve Banka Ozet Raporu</v>
+      </c>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük Kasa ve Banka Ozet Raporu
+          </v>
+      </c>
+      <c r="D14" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Dün kasa para girişi toplam tutarı bulunamadı.</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>Bu hafta vadesi gelen faturaların toplam tutarı ne kadar?</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük POS İşlemleri ve Banka Bazlı Toplamlar
+          </v>
+      </c>
+      <c r="D15" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Bu hafta vadesi gelen faturaların toplam tutarı 1,615,576.52 TL.</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>Hangi müşterilerden bu hafta ödeme bekliyoruz?</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Alacak Takip Raporu (GENEL)
+          </v>
+      </c>
+      <c r="D16" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Bu hafta ödeme beklediğimiz müşteriler arasında AKİF MOBİLYA (6,469.86 TL), ANKA BAĞLANTI ELEMANLARI (43,331.47 TL ve 43,200 TL) ve ANKARA CİVATA BAĞLANTI ELEMANLARI (toplamda 253,139.15 TL, 11,980.80 TL, 64,821.98 TL, 54,021.43 TL, 56,495.04 TL, 14,918.40 TL ve 94,348.80 TL) yer alıyor!</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>ÇEK ödemeli faturaların bu haftaki tutarı nedir?</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Haftalık Yapılması Gereken Ödemeler
+          </v>
+      </c>
+      <c r="D17" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Bu hafta çek ödemeli faturalar için toplam tutar bulunamadı.</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>Bu hafta TL cinsinden ne kadar tahsilat beklenebilir?</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük Gerçekleşen Tahsilat (Yurt İçi)
+          </v>
+      </c>
+      <c r="D18" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Bu hafta tahsilat tutarı için herhangi bir ödeme bulunmamaktadır.</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>Döviz cinsinden bu hafta gelecek ödemeler ne kadar?</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 İhracat Tahsilatları
+          </v>
+      </c>
+      <c r="D19" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E19" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>Hangi ödeme şekilleri bu hafta daha yoğun?</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Gelen Ödemeler
+          </v>
+      </c>
+      <c r="D20" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Bu hafta gelen ödemelerde havale 3,103,583.10 TL, çek 2,760,713.62 TL ve kredi kartı 2,771,646.02 TL ile öne çıkarken, nakit ve senet için hiç ödeme bulunmamaktadır.</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>Dün vadesi gelen ancak ödenmeyen faturalar hangileri?</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Vadesi Geçmiş Alacak Maili (İç Yazışma)</v>
+      </c>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Alacak Takip Raporu (GENEL)
+          </v>
+      </c>
+      <c r="D21" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E21" t="str" xml:space="preserve">
+        <v xml:space="preserve">İşte dün vadesi gelen ödenmeyen faturalar listesi: 
+1. **MECH HURTOWNIA WYROBÓW METALOWYCH WITOLD MECH €** - Fatura No: SVI2025000000222, Kalan Borç: 1,016,574.09 TL
+2. **TÜRK PRYSMİAN KABLO VE SİSTEMLERİ A.Ş.** - Fatura No: SVM2025000014737, Kalan Borç: 62,487.44 TL
+3. **ÇEMASAN ÇELİK MAK SAN TİC.A.Ş.** - Fatura No: SVM2025000014789, Kalan Borç: 4,575.66 TL
+4. **ULUSAL TEKNİK SERVİS - MUSTAFA ULUSAL** - Fatura No: SVM2025000018117, Kalan Borç: 444.31 TL
+5. **EMRAH GÜNEŞ ORMAN ÜRÜNLERİ SAN VE TİC A Ş** - Fatura No: SVM2025000018109, Kalan Borç: 27,978.40 TL
+6. **SAĞLAM AMBALAJ VE HAVALI ALETLER- KENAN SAĞLAMER** - Fatura No: SVM2025000018108, Kalan Borç: 14,856.14 TL
+7. **ÖZMETAL HURDACILIK VE GERİ DÖNÜŞÜM - ALİ ÖZDEMİR** (3 adet fatura) - Toplam Kalan Borçlar: 2,160 TL + 1,800 TL + 5,550 TL 
+8. **SCA ATIK YÖNETİMİ ANONİM ŞİRKETİ** - Fatura No: SVM2025000014746, Kalan Borç: 207,470.32 TL
+Toplamda birçok müşteri için ödenmemiş faturalar mevcut!</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>Gecikmeli ödemelerin toplam tutarı ne kadar?</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Alacak Takip Raporu</v>
+      </c>
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Yapılması Gereken Tüm Ödemeler (Geçmiş ve Geleceğe Yönelik)
+          </v>
+      </c>
+      <c r="D22" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Gecikmeli ödemelerin toplam tutarı 1,149,895,705.57 TL'dir.</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>10 kereden fazla ödemesini geciktiren müşteri sayısı kaçtır ve isimleri nelerdir?</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Alacak Takip Raporu</v>
+      </c>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Müşteri Ödeme Performans Raporu
+          </v>
+      </c>
+      <c r="D23" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E23" t="str">
+        <v>10 kereden fazla gecikmeli ödeme yapan müşteriler şunlardır: WKRET-MET SP. Z O.O. € (982), SANTEK S.T.H.TEKNİK HIRDAVAT TİCARET VE SANAYİ LTD ŞTİ (778), ARİF TUNÇ (450), ÖZDEMİR HIRDAVAT SANAYİ VD TİC.LTD.ŞTİ. (449), YAŞAR TEKNİK YAPI MALZ. DIŞ TİC.A.Ş. (371), ANKARA CİVATA BAĞLANTI ELEMANLARI İTHALAT İHRACAT (356), SELECTRON ELEKTRO KİMYA SAN. VE TİC.LTD.ŞTİ. (306), MÜFTÜOĞLU TEKSTİL İMALAT YAPI MALZEMELERİ İNŞ.GID.PAZ.SAN.TİC.LTD.ŞTİ. (294), SERTEL VİDA METAL GMBH € (275) ve SERTEL SCREW &amp; NAIL CORP $ (267).</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>Vadesi henüz gelmemiş alacaklarımızın toplamı nedir?</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Alacak Takip Raporu</v>
+      </c>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Borç Yaşlandırma Raporu (GENEL)
+          </v>
+      </c>
+      <c r="D24" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Vadesi henüz gelmemiş alacakların toplam tutarı 188,858,626.27 TL'dir.</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>Sene başından beri toplam satışı en fazla olan bölge hangisidir</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D25" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Sene başından beri toplam satış en fazla olan bölge DT, toplamda 286,704,710 TL ile öne çıkıyor.</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>Geçen ay en fazla satış yapan satış sorumlusu kimdir</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D26" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Geçen ay en fazla satış yapan satış sorumlusunun ismi "ÖZEL MÜŞTERİ" ve satış tutarı 20,475,090.49 TL.</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>Geçen ay en fazla satış yapan ilk 3 satış sorumlusu kimdir</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D27" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Geçen ay en fazla satış yapan ilk 3 satış sorumlusunu sırasıyla Özel Müşteri (20,475,090 TL), Birsan Serttaş (11,037,942 TL) ve Nur Durdane Gül (8,198,263 TL) olarak belirledik!</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>Geçen ay en az satış yapan satış sorumlusu kimdir</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D28" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E28" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>Geçen ay toplam satışım ne kadar</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D29" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Geçen ay toplam satış tutarı 47,996,408 TL olarak gerçekleşti.</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>Sene başından beri toplam satışım ne kadar</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D30" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Sene başından beri toplam satış tutarı 452,919,735.37 TL.</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>Sene başından beri en fazla satışı hangi ay, hangi satış sorumlusu yaptı</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C31" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D31" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E31" t="str">
+        <v>En fazla satış yapılan ay Mayıs 2025'te, satış sorumlusunun ismi Nur Durdane Gül ve toplam net satış tutarı 42,098,506.55 TL.</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>Sene başından beri en fazla hangi ana ürün grubundan ne kadar satış yaptım</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C32" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D32" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Sene başından beri en fazla satış yapılan ana ürün grubu "ÇİVİ" olup, satış tutarı 270,175,132.78 TL'dir.</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>Sene başından beri en fazla satış yaptığım 3 ana malzeme grubu nedir</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D33" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Sene başından beri en fazla satış yapılan ilk 3 ana malzeme grubu: ÇİVİ (270,175,133 TL), TEL (181,612,925 TL) ve Diğer (46,563,876 TL).</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>Sene başından beri en az satış yaptığım 3 ana malzeme grubu nedir</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C34" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D34" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Sene başından beri en az satış yapılan ana malzeme grupları: CIVATA (-102,760,003.64 TL), SOMUN (-59,042,625.36 TL) ve 3M (-96,746.82 TL).</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v>Geçen ay en fazla hangi ana malzemeden grubundan satış yaptım</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C35" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D35" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Geçen ay en fazla satış yapılan ana malzeme grubu "ALÇIPAN VİDA" olup, toplam satış tutarı 44,427,609.43 TL'dir.</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>Sene başından beri en fazla satış yaptığım 3 müşterim kimdir</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C36" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D36" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Sene başından beri en fazla satış yaptığınız ilk 3 müşteri: SERTEL SCREW &amp; NAIL CORP $ (97,406,899.24 TL), KNAUF İNŞAAT VE YAPI ELEMANLARI SAN.VE TİC.A.Ş. (53,535,588.38 TL) ve WKRET-MET SP. Z O.O. € (52,662,138.42 TL).</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v>Sene başından beri en fazla satış yaptığım 3 yurt içi müşterim kimdir</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C37" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D37" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Sene başından beri yurt içi müşterilerde en fazla satış yapılan ilk 3 müşteri şunlardır: KNAUF İNŞAAT VE YAPI ELEMANLARI SAN.VE TİC.A.Ş. (53,535,588.38 TL), DALSAN ALÇI SANAYİ VE TİCARET A.Ş. (30,739,397.94 TL) ve EJOT TEZMAK BAĞLANTI ELEMANLARI TEKNOLOJİLERİ SANAYİ VE TİCARET ANONİM ŞİRKETİ (15,106,369.33 TL).</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>Sene başından beri en az satış yaptığım 3 yurt içi müşterim kimdir</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C38" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D38" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E38" t="str">
+        <v>En az satış yapan yurt içi müşterilerimiz şunlardır: 1) DETAY BAĞLANTI ELEMANLARI SAN.VE TİC.A.Ş (-84,285,965.93 TL), 2) ANKARA CİVATA BAĞLANTI ELEMANLARI İTHALAT İHRACAT (-40,775,497.79 TL), 3) ÖMÜR HIRDAVAT İNŞAAT TEKSTİL GIDA TURİZM SANAYİ VE TİCARET LİMİTED ŞİRKETİ (-13,967,832.57 TL).</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>Tutarsal olarak geçen ay en fazla vida satışı yaptığım ilk 5 firma hangisidir</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C39" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D39" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Geçen ay en yüksek vida satış tutarına sahip ilk 5 müşteri şunlardır: KNAUF İNŞAAT VE YAPI ELEMANLARI SAN.VE TİC.A.Ş. (11,321,412.74 TL), ONPO MADENCİLİK İNŞ. SAN.VE TİC.AŞ. (4,899,908.83 TL), WKRET-MET SP. Z O.O. € (3,920,956.29 TL), BERNER LOGİSTİCS KERKRADE B.V.€ (3,023,461.65 TL) ve EJOT TEZMAK BAĞLANTI ELEMANLARI TEKNOLOJİLERİ SANAYİ VE TİCARET ANONİM ŞİRKETİ (2,475,299.75 TL).</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>Haziran ayından tutarsal olarak en fazla çivi satışı yaptığım ilk 5 firma hangisidir</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D40" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Haziran ayında çivi satışları tutar bazında ilk 5 müşteri şunlardır: SERTEL VİDA METAL GMBH € (4,119,773.11 TL), SERTEL SCREW &amp; NAIL CORP $ (1,731,313.06 TL), AKYÜZLER İNŞAAT MALZEMELERİ SAN.TİC.LTD.ŞTİ. (1,514,311.05 TL), ÇELİKSAN ÇİVİ İMALAT SAN VE TİC LTD.ŞTİ (1,071,123.99 TL) ve INDFAS SUPPLY $ (1,057,854.17 TL).</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>Bu satışları yapmak için sene başından beri toplam kaç fatura kestim</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Toplam Aylik Satis Raporu Ozeti
+          </v>
+      </c>
+      <c r="D41" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Sene başından beri toplam fatura adedi 5,177,147,169.</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>Ham malzemeler hariç Fatura sayısına göre birim ortalama satış fiyatı en yüksek olan ana malzeme grubu ve ortalama satış fiyatı kaçtır?</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Satış Performans Raporu</v>
+      </c>
+      <c r="C42" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D42" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E42" t="str" xml:space="preserve">
+        <v xml:space="preserve">Toplam 52601 kayıt bulundu:
+1. Satış Sorumlusu Kodu: 1 - Satış Sorumlusu: MERSİN MERKEZ SATIŞ - Satış Sorumlusu Bölge: G.DOĞU
+2. Satış Sorumlusu Kodu: 1 - Satış Sorumlusu: MERSİN MERKEZ SATIŞ - Satış Sorumlusu Bölge: G.DOĞU
+3. Satış Sorumlusu Kodu: 1 - Satış Sorumlusu: MERSİN MERKEZ SATIŞ - Satış Sorumlusu Bölge: G.DOĞU
+4. Satış Sorumlusu Kodu: 1 - Satış Sorumlusu: MERSİN MERKEZ SATIŞ - Satış Sorumlusu Bölge: G.DOĞU
+5. Satış Sorumlusu Kodu: 1 - Satış Sorumlusu: MERSİN MERKEZ SATIŞ - Satış Sorumlusu Bölge: G.DOĞU
+... and 52596 more records</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
+        <v>En çok tahsilat gelen 3 günü ve ödeme yöntemlerini listeler misin?</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Gelen Ödemeler
+          </v>
+      </c>
+      <c r="D43" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E43" t="str">
+        <v>İlk 3 gün en çok tahsilat şu şekilde: 7 Temmuz 2025'te toplam 26,369,728.85 TL (Havale: 19,126,470.10 TL, Çek: 193,519.78 TL, Kredi Kartı: 7,049,738.97 TL), 7 Şubat 2025'te toplam 23,163,601.73 TL (Havale: 9,202,164.84 TL, Çek: 2,308,215.49 TL, Kredi Kartı: 11,653,221.40 TL) ve 21 Şubat 2025'te toplam 21,273,263.83 TL (Havale: 14,326,812.96 TL ve Kredi Kartı: 6,946,450.87 TL).</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
+        <v>Bugün havale ile kaç lira ödeme geldi?</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+      <c r="C44" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Gelen Ödemeler
+          </v>
+      </c>
+      <c r="D44" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Bugün tahsilat tutarı (gelen ödemeler) havale olarak 3,103,583.10 TL'dir.</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>Haziran ayı toplam gelen tutar ne kadar?</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+      <c r="C45" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Gelen Ödemeler
+          </v>
+      </c>
+      <c r="D45" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Haziran ayı toplam tahsilat tutarı 195,419,187.17 TL'dir.</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>Çek tahsilatlarının en yoğun olduğu günler</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+      <c r="C46" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Gelen Ödemeler
+          </v>
+      </c>
+      <c r="D46" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E46" t="str">
+        <v>En yoğun çek tahsilat günleri 10 Ocak 2025'te 7,550,705.06 TL, 24 Nisan 2025'te 6,620,699.69 TL ve 11 Şubat 2025'te 5,688,344 TL olarak gerçekleşmiştir.</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str">
+        <v>Nakit çıkışları en yoğun hangi aylarda gerçekleşti?</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Günlük Kasa ve Banka Ozet Raporu</v>
+      </c>
+      <c r="C47" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Giden Ödemeler 
+          </v>
+      </c>
+      <c r="D47" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E47" t="str">
+        <v>En yoğun nakit çıkışları Mayıs ayında 34,430,634.98 TL ile gerçekleşirken, onu Temmuz (30,771,282.06 TL) ve Mart (19,748,704.43 TL) izliyor.</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="A48" t="str">
+        <v>Sene başından beri hangi ödeme kanalı en çok kullanılmış (nakit, havale, kredi kartı)?</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+      <c r="C48" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Gelen Ödemeler
+          </v>
+      </c>
+      <c r="D48" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Sene başından beri en çok kullanılan ödeme kanalı kredi kartı, toplamda 1.237.443.628,83 TL ile tercih edildi.</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str">
+        <v>Geçen hafta kredi kartıyla yapılan ödeme ne kadardı?</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+      <c r="C49" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Gelen Ödemeler
+          </v>
+      </c>
+      <c r="D49" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Geçen hafta kredi kartı tahsilat tutarı 29,747,062.29 TL olarak gerçekleşti.</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str">
+        <v>Hangi günlerde nakit kasa ödemeleri daha fazla olmuş?</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Günlük Kasa ve Banka Ozet Raporu</v>
+      </c>
+      <c r="C50" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Giden Ödemeler 
+          </v>
+      </c>
+      <c r="D50" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Nakit kasa ödemeleri en fazla olan günler şunlardır: 25 Mart 2025 - 14,245,985 TL, 20 Şubat 2025 - 13,983,966.78 TL, ve 2 Mayıs 2025 - 13,828,321.50 TL.</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str">
+        <v>Banka üzerinden kaç fatura ödemesi yapılmış bu yıl?</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Günlük Kasa ve Banka Ozet Raporu</v>
+      </c>
+      <c r="C51" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Giden Ödemeler_Cari Kodlu
+          </v>
+      </c>
+      <c r="D51" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Bu yıl banka üzerinden 149 fatura ödemesi yapılmış.</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
+      <c r="A52" t="str">
+        <v>Toplam fatura sayısı 100 üzerinde olup tam vadesine %100 uyan müşterilerim kimlerdir.</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Müşteri Ödeme Performansı</v>
+      </c>
+      <c r="C52" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Müşteri Ödeme Performans Raporu
+          </v>
+      </c>
+      <c r="D52" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E52" t="str">
+        <v>İşte toplam fatura sayısı 100'den fazla olan ve vadesine %100 uyan müşteriler: CEVHER TİCARET-YILMAZ GÜZEL (144), ARSLAN KARDEŞLER NURCAN ARSLAN (188), ERBEK HIRDAVAT - MURAT ERDİM ERBEK (107), ARAS TEKNİK HIRDAVAT MELİKE OLGUN (132), GÜLER YAPI MALZEMELERİ BAHADIR GÜLER (165), SAMETCAN YAPI MARKET SAN.VE TİC.LTD.ŞTİ. (159), MURAT FIRÇA HIRDAVAT SAN. ve TİC. LTD. ŞTİ. (112), ADA BAĞLANTI ELEM.HIR.SAN.VE TİC.LTD.ŞTİ. (210), ÖNCÜ YAPI İNŞAAT - ERDAL ÖNCÜ (141) ve GÜRSAN ÇİVİ HIRDAVAT SANAYİ VE DIŞ TİCARET LIMITED ŞİRKETI (351).</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="A53" t="str" xml:space="preserve">
+        <v xml:space="preserve">Toplam fatura sayısı 100 üzerinde olup ödeme vade performansı en kötü müşterim kimdir ? _x000d__x000d__x000d__x000d_
+bu müşterime ne kadarlık fatura kestim?</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Müşteri Ödeme Performansı</v>
+      </c>
+      <c r="C53" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Müşteri Ödeme Performans Raporu
+          </v>
+      </c>
+      <c r="D53" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E53" t="str">
+        <v>En kötü vade performansına sahip müşteri MAKİMPA HIRD.İNŞ.TEM.HİZ.GIDA MAD.SAN.TİC.LTD.ŞTİ. olup, toplam fatura tutarı 275,417 TL'dir.</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="A54" t="str">
+        <v>En fazla fatura kestiğim müşterimin genel fatura performansı kaçtır?</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Müşteri Ödeme Performansı</v>
+      </c>
+      <c r="C54" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Toplam Aylik Satis Raporu Ozeti
+          </v>
+      </c>
+      <c r="D54" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E54" t="str">
+        <v>En fazla fatura kestiğiniz müşteri "YURT İÇİ SATIŞLAR" olup, Ocak ayında 242.201.461,04 TL, Şubat'ta 178.932.567,79 TL ve Temmuz'da 198.463.777,63 TL gibi yüksek performans göstermiştir!</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="A55" t="str">
+        <v>En fazla fatura kestiğim ikinci müşterimin vade performansı kaçtır</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Müşteri Ödeme Performansı</v>
+      </c>
+      <c r="C55" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D55" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E55" t="str">
+        <v>En fazla fatura kestiğin ikinci müşterinin vade performansı "SECE EL ALETLERİ VE SANAYİ TİCARET LİMİTED ŞİRKETİ (MERSİN ŞUBESİ)" olup, 467 fatura kesilmiş.</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="A56" t="str">
+        <v>Hangi ürünlerin siparişi acil verilmeli?</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Aylık Malzeme Girişi ve Çıkışı Kontrolü (SATIN ALMA)</v>
+      </c>
+      <c r="C56" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Stok Seviyesi (Azami&amp;Asgari&amp;Emniyet) Kontrolü (Ticari Mal)
+          </v>
+      </c>
+      <c r="D56" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Acil sipariş verilecek kritik stok altı ürünler arasında "FEEDER SPRING", "BAKIR ÇUBUK 30MM", "TARAK SETİ 2,8X38 BALİSTİC 25X90/105", "YOLLUK AYIRMA MAKİNASI" ve daha fazlası bulunuyor; hepsinin güncel stoku sıfır.</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="A57" t="str">
+        <v>Her üründen ne kadar sipariş verilmeli?</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Aylık Malzeme Girişi ve Çıkışı Kontrolü (SATIN ALMA)</v>
+      </c>
+      <c r="C57" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Stok Seviyesi (Azami&amp;Asgari&amp;Emniyet) Kontrolü (Ticari Mal)
+          </v>
+      </c>
+      <c r="D57" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Acil sipariş verilecek ürünler için önerilen sipariş miktarları arasında sadece "ANAKALIP PİMİ 3,30X72,50 BOY" için 160 adet bulunuyor; diğerleri için önerilen sipariş miktarı yok.</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="A58" t="str">
+        <v>Güvenlik stoku seviyeleri ne olmalı?</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Aylık Malzeme Girişi ve Çıkışı Kontrolü (SATIN ALMA)</v>
+      </c>
+      <c r="C58" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Stok Seviyesi (Azami&amp;Asgari&amp;Emniyet) Kontrolü (Ticari Mal)
+          </v>
+      </c>
+      <c r="D58" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Güvenlik stokları talep değişkenliği, tedarik süresi ve hedef hizmet seviyesine göre hesaplanır. Genel formül: Güvenlik stoku = Z * σLT. Mevcut verilerle ürün bazlı hesaplama yapabilirim.</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
+      <c r="A59" t="str">
+        <v>Hangi tedarikçilerle çalışılıyor?</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Aylık Malzeme Girişi ve Çıkışı Kontrolü (SATIN ALMA)</v>
+      </c>
+      <c r="C59" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Tedarikçi Performans Raporu
+          </v>
+      </c>
+      <c r="D59" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E59" t="str" xml:space="preserve">
+        <v xml:space="preserve">Toplam 47033 kayıt bulundu:
+1.  - birim: ADET
+2.  - birim: ADET
+3.  - birim: ADET
+4.  - birim: ADET
+5.  - birim: ADET
+... and 47028 more records</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="A60" t="str">
+        <v>Hangi bankada ne kadar TL, USD veya EURO var?</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Banka Durumları</v>
+      </c>
+      <c r="C60" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Banka Durumları 
+          </v>
+      </c>
+      <c r="D60" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E60" t="str">
+        <v>A BANK-TL has a balance of 44.32 TL, AKBANK-EURO has 10,548.60 EURO, AKBANK-TL has 182,939.45 TL, and AKBANK-USD has 62,028.24 USD; all other banks have no balances found.</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
+      <c r="A61" t="str">
+        <v>Kredi veya teminat dışı hesaplar ne durumda?</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Banka Durumları</v>
+      </c>
+      <c r="C61" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Banka Durumları 
+          </v>
+      </c>
+      <c r="D61" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Kredi/teminat dışı hesaplar durumunda, A BANK-TL'de 44.32 TL, AKBANK-TL'de 182,939.45 TL ve AKBANK-USD'de 2,557,393.33 TL bulunuyor; diğer hesaplarda ise hiç bakiye yok.</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="A62" t="str">
+        <v>Son 30/60/90 gün içinde tahsil edilemeyen çekler hangileri?</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Müşteri çekleri (Çek kaybolması)</v>
+      </c>
+      <c r="C62" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Borç Yaşlandırma Raporu (GENEL)
+          </v>
+      </c>
+      <c r="D62" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E62" t="str" xml:space="preserve">
+        <v xml:space="preserve">İşte 30/60/90 gün tahsil edilemeyen çekler listesi: 
+1. KNAUF İNŞAAT VE YAPI ELEMANLARI SAN.VE TİC.A.Ş. - 30 gün: 8,559,761.82 USD, 60 gün: 2,868,714.35 USD, 90 gün: 7,042,371.44 USD
+2. SERTEL SCREW &amp; NAIL CORP $ - 30 gün: 4,827,169.93 USD, 60 gün: 8,926,697.36 USD, 90 gün: none found
+3. WKRET-MET SP. Z O.O. € - 30 gün: none found, 60 gün: none found, 90 gün: 2,293,504.39 EUR
+4. DALSAN ALÇI SANAYİ VE TİCARET A.Ş.$ - 30 gün: none found, 60 gün: none found, 90 gün: 2,393,881.60 USD
+5. SANTEK SANAYI IMALATINS.MÜT.DEMIR HIRDV.TIC.LTD.STI. - tüm dönemlerde none found
+6. EJOT TEZMAK BAĞLANTI ELEMANLARI TEKNOLOJİLERİ SANAYİ VE TİCARET ANONİM ŞİRKETİ - tüm dönemlerde none found
+7. SERTEL VİDA METAL GMBH € - tüm dönemlerde none found
+8. HAFELE MOBİLYA VE İNŞAAT DONANIMLARI SAN.VE TİC.A.Ş.- tüm dönemlerde none found
+9. NATIONAL NAIL CORP.- tüm dönemlerde none found
+10. DCI GLOBAL IMPORTS INC.- tüm dönemlerde none found
+Umarım bu bilgiler yardımcı olur!</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="A63" t="str">
+        <v>Toplam çek portföyü ne kadarlık bir tutarı kapsıyor?</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Müşteri çekleri (Çek kaybolması)</v>
+      </c>
+      <c r="C63" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük Kasa ve Banka Ozet Raporu
+          </v>
+      </c>
+      <c r="D63" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Portföy toplam tutarı bulunamadı.</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="A64" t="str">
+        <v>A sınıfına giren ürünler hangileridir ve bunların ortalama birim fiyatı nedir?</v>
+      </c>
+      <c r="B64" t="str">
+        <v>ABC Analizin (GENEL)</v>
+      </c>
+      <c r="C64" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 ABC Analizin (GENEL)
+          </v>
+      </c>
+      <c r="D64" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E64" t="str">
+        <v>İşte A sınıfı ürünler ve ortalama birim fiyatları: GRİ KAUÇUKLU PUL (R.washer) 16x6,1mm: 0.1445 TL, NALKOLAT WEST: 131.6343 TL, GRİ KAUÇUKLU PUL (R.washer) 19x6,8x0,25 mm: 0.2684 TL, NALKOL 013WX: 111.69 TL, NALKOSOL 011 S: 101.37 TL, GRİ KAUÇUKLU PUL (R.washer) 14x5,4x0.25mm: 0.1511 TL, GRİ KAUÇUKLU PUL (R.washer) 16x6,8mm: 0.1245 TL, FURNACE RESISTANCES: 23,425.91 TL, İÇ ÇAPI Ø160 MM SPİRAL ÇELİK TELLİ HORTUM: 6,000 TL ve DEMİR KANGAL 1,1018: 22.8209 TL!</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="A65" t="str">
+        <v>Bütçe planlaması açısından hangi kalemler daha yakından takip edilmelidir?</v>
+      </c>
+      <c r="B65" t="str">
+        <v>ABC Analizin (GENEL)</v>
+      </c>
+      <c r="C65" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 ABC Analizin (GENEL)
+          </v>
+      </c>
+      <c r="D65" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Değişken maliyetler (hammadde/imalat), tedarikçi ödemeleri, personel maliyetleri, kira/işletme giderleri, finansman maliyetleri, döviz pozisyonu ve taahhütler, kritik yatırımlar/ bakım giderleri, beklenmeyen giderler ve alacak tahsilat performansı yakından takip edilmeli</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str">
+        <v>Bugün hangi müşteriden hangi ürün için kaç adet sipariş alındı?</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Günlük Satış Sipariş Raporu</v>
+      </c>
+      <c r="C66" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük Satış Sipariş Raporu
+          </v>
+      </c>
+      <c r="D66" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Bugün alınan siparişlerde toplam 26,000 adet 5x80 (Dökme) Oluklu Galv. Beton Çivisi, 18,000 adet aynı üründen daha var; ayrıca TAMAŞ ORMAN ÜRÜNLERİ'nden 125 ve 250 adet Dökme Ring siparişi bulunuyor!</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="A67" t="str">
+        <v>Hangi müşteriler bugün en çok sipariş verdi?</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Günlük Satış Sipariş Raporu</v>
+      </c>
+      <c r="C67" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük Satış Sipariş Raporu
+          </v>
+      </c>
+      <c r="D67" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Bugün en çok sipariş veren müşterilerden her biri 2 veya 3 adet sipariş verdi; en yüksek sipariş sayısı 3 ile "120.001.00823", "120.001.09861" ve "120.001.15237" kodlu müşterilere ait!</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="A68" t="str">
+        <v>Bu yıl genel alacak tutarım ne kadar ve bunun ne kadarı dövizli?</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Alacak Takip Raporu (GENEL)</v>
+      </c>
+      <c r="C68" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Alacak Takip Raporu (GENEL)
+          </v>
+      </c>
+      <c r="D68" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Bu yıl genel alacak toplamı 376,964,864.76 TL ve dövizli alacak tutarı 2,147,361.86.</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="A69" t="str">
+        <v>Bu yıl TL ve döviz bazlı açık bakiyesi en fazla olan müşteriler kimler?</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Alacak Takip Raporu (GENEL)</v>
+      </c>
+      <c r="C69" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Alacak Takip Raporu (GENEL)
+          </v>
+      </c>
+      <c r="D69" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Bu yıl en yüksek açık bakiyesi olan müşterilerden bazıları şunlardır: SERTEL VİDA METAL GMBH € (18,871,606.77 TL ve 431,424.17 €), WKRET-MET SP. Z O.O. € (17,334,701.10 TL ve 386,917.23 €) ve SECE EL ALETLERİ VE SANAYİ TİCARET LİMİTED ŞİRKETİ (MERSİN ŞUBESİ) (13,846,321.24 TL ve 2,627.70 €).</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="A70" t="str">
+        <v>Bu yıl Tahsilat durumu satış temsilcilerine göre nasıl değişiyor?</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Alacak Takip Raporu (GENEL)</v>
+      </c>
+      <c r="C70" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D70" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Bu yıl tahsilat durumu satış temsilcilerine göre en yüksek tahsilat 113,857,953 TL ile Birsan Serttaş'tan gelirken, onu 109,703,236 TL ile Nur Durdane Gül takip ediyor.</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
+      <c r="A71" t="str">
+        <v>Dün çek/havale ile ödeme yapan müşteriler kimler?</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+      <c r="C71" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Gelen Ödemeler_Cari Kodlu
+          </v>
+      </c>
+      <c r="D71" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E71" t="str">
+        <v>İşte dün havale ile ödeme yapan müşterilerimiz: HES HACILAR ELEKTRİK SAN.TİC.AŞ. (274,320 TL), TÜRK PRYSMİAN KABLO VE SİSTEMLERİ A.Ş. (63,156 TL), GAZİ TEKNİK - GAZİ ÖZDİL (7,000 TL), YÜCEL TEKNİK RULMAN ELEKTRİK HIRD.SAN.TİC.LTD.ŞTİ. (661 TL), GÜMPA İNŞAAT MAKİNA ELEKTRİK TEMİZLİK SANAYİ VE TİCARET LTD. ŞTİ. (581 TL), BAŞOL YAPI MALZEMELERİ TİC. LTD. ŞTİ. (150,000 TL), KERİM ÇANAK (48,786 TL), ALTUN YAPI DEKORASYON - HÜSEYİN ALTUN (239 TL), YETGİN CİVATA BAĞLANTI ELEMANLARI İLAÇLAMA HIRDAVAT TARIM SAN. ve TİC.LTD.ŞTİ. (150,000 TL) ve GÜÇLÜ NAKLİYAT VE GERİ DÖNÜŞÜM ALI GÜÇLÜ (75,000 TL).</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str">
+        <v>Dün tahsil edilen faturalardan kalan bakiye 10 TL’den fazla olanlar hangileri?</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+      <c r="C72" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Müşteri Ödeme Performans Raporu
+          </v>
+      </c>
+      <c r="D72" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E72" t="str">
+        <v>İşte kalan bakiyesi 10 TL'den fazla olan faturalar: STARWOOD YAPI MARKETLERİ'nden 97,100 TL ve 1,160,000 TL; TORK İNOVASYON CİVATA'dan ise 86.53 TL, 90.13 TL, 46.79 TL, 94.93 TL, 74.60 TL, 72.84 TL ve 90.84 TL bulunuyor!</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
+      <c r="A73" t="str">
+        <v>Dün yapılan toplam tahsilat tutarı neydi (TL ve döviz)?</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+      <c r="C73" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük Gerçekleşen Tahsilat
+          </v>
+      </c>
+      <c r="D73" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E73" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
+        <v>Dün Tahsil edilen fatura tutarlarının döviz/TL dağılımı nedir?</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Günlük Gerçekleşen Tahsilat</v>
+      </c>
+      <c r="C74" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük Gerçekleşen Tahsilat
+          </v>
+      </c>
+      <c r="D74" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E74" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
+      <c r="A75" t="str">
+        <v>Bu hafta tahsil etmem gereken yurt içi ve yurt dışı alacaklarım neler?</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+      <c r="C75" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Nakit Akis Tablosu
+          </v>
+      </c>
+      <c r="D75" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Bu hafta tahsil edilecek alacaklar toplamı 55,569,873.09 TL olup, detaylar şu şekildedir: Müşteri Çekleri için 8,980,344.23 TL ve Kredi Kartı Tahsilatı için 46,669,528.86 TL bulunuyor.</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str">
+        <v>120.001 veya 120.002 ile başlayan cari hesaplar arasında bu hafta ödemesi olanlar kimler?</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+      <c r="C76" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Haftalık Yapılması Gereken Ödemeler
+          </v>
+      </c>
+      <c r="D76" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E76" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
+      <c r="A77" t="str">
+        <v>Cari bakiyesi olup da bu hafta ödemesi olan müşterilerim kimler?</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+      <c r="C77" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Nakit Akis Tablosu
+          </v>
+      </c>
+      <c r="D77" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E77" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="A78" t="str">
+        <v>Bu hafta çek, havale ya da peşin ile ödenecek faturalar hangileri?</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+      <c r="C78" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Haftalık Yapılması Gereken Ödemeler
+          </v>
+      </c>
+      <c r="D78" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Bu hafta ödenecek faturalar arasında 45 adet havale ile toplam 4,285,113.53 TL bulunuyor.</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
+      <c r="A79" t="str">
+        <v>Toplam bu hafta tahsil edilmesi gereken TL ve döviz tutarı nedir?</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Haftalık Yapılması Gereken Tahsilat</v>
+      </c>
+      <c r="C79" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Nakit Akis Tablosu
+          </v>
+      </c>
+      <c r="D79" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Bu hafta tahsil edilmesi gereken toplam tutar 55,649,873.09 TL.</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
+      <c r="A80" t="str">
+        <v>Hangi malzemelerin stok seviyesi emniyet stok seviyesinin altındadır?</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Stok Seviyesi (Azami&amp;Asgari&amp;Emniyet) Kontrolü (Ticari Mal)</v>
+      </c>
+      <c r="C80" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Stok Seviyesi (Azami&amp;Asgari&amp;Emniyet) Kontrolü (Ticari Mal)
+          </v>
+      </c>
+      <c r="D80" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E80" t="str">
+        <v>İşte emniyet stok seviyesinin altında olan malzemeler: "5,48X93 PİM", "AKD SPL27 BARUTLU ASKI PİMİ 100X10", "AKÜLÜ DARBELİ VİDALAMA Li-ion (SET) KÖMÜRSÜZ 10 MM", "BOYA VE HARÇ MİKSERİ 1200W", "AVUÇ TAŞLAMA 125MM 850W DEVİR AYARLI", "AKÜLÜ VİDALAMA 20V 1.5 Ah", "İŞÇİLİK İÇİN GÖNDERİLEN YEDEK PARÇA", "NAIL X-CCNK32 Tavan klipsi 100X20", "NK32 3,7x32mm 100x50PK" ve "1/4\" YILDIZ BİTS UÇ PH2x25 mm (12x200=2400)".</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
+      <c r="A81" t="str">
+        <v>Kritik stok seviyesine ulaşan tüketim malları nelerdir?</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Depo stok Tutarı Raporu (Sarf ve Tüketim)</v>
+      </c>
+      <c r="C81" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Sarf Malzeme Kontrol
+          </v>
+      </c>
+      <c r="D81" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E81" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
+      <c r="A82" t="str">
+        <v>Stok değeri en yüksek olan 10 ürün hangisi?</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Malzeme Stok Raporu</v>
+      </c>
+      <c r="C82" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Depo stok Tutarı Raporu (Mamul ve Ticari Mal)
+          </v>
+      </c>
+      <c r="D82" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E82" t="str" xml:space="preserve">
+        <v xml:space="preserve">İşte stok değeri en yüksek 10 ürün: 
+1. TRAPEZ VİDA-KUTULU 5,5X32MM - 820,026.56 TL (İHRACAT AMBARI)
+2. TRAPEZ VİDA-KUTULU 5,5X38MM - 773,526.79 TL (İHRACAT AMBARI)
+3. SUNTA VİDASI 3,0X16 ÇİNKO - 711,629.60 TL (İHRACAT AMBARI)
+4. SUNTA VİDASI 4,0X40 ÇİNKO - 728,900.15 TL (İHRACAT AMBARI)
+5. M-NAIL AT-5056 Cırcır motoru - 93,876.75 TL (KERESTECİLER DEPO)
+6. CF10 ZIVANA ÇV 25/10MM - 9,495.94 TL (KERESTECİLER DEPO)
+7. YILDIZ BİTS UÇ PH1YTx50 mm - 944.44 TL (KERESTECİLER DEPO)
+8. TELE DİZ 16" RING - 92.82 TL (Yeni Depo)
+9. SUNTA VİDASI 3,0X16 ÇİNKO - 95,776.65 TL (Yeni Depo)
+10. 7000028201 Slotted - 75,131.28 TL (Yeni Depo)</v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
+      <c r="A83" t="str">
+        <v>Hangi malzeme türlerinde stok riski daha fazladır?</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Malzeme Stok Raporu</v>
+      </c>
+      <c r="C83" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Stok Seviyesi (Azami&amp;Asgari&amp;Emniyet) Kontrolü (Ticari Mal)
+          </v>
+      </c>
+      <c r="D83" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Stok riski yüksek malzeme türü "Ticari Mal" olup, miktarı 12,748.</v>
+      </c>
+    </row>
+    <row r="84" xml:space="preserve">
+      <c r="A84" t="str">
+        <v>Güncel stoklar azami stok seviyesini aşmış mı?</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Stok Seviyesi (Azami&amp;Asgari&amp;Emniyet) Kontrolü (Ticari Mal)</v>
+      </c>
+      <c r="C84" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Stok Seviyesi (Azami&amp;Asgari&amp;Emniyet) Kontrolü (Ticari Mal)
+          </v>
+      </c>
+      <c r="D84" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Güncel stoklar, maksimum stok seviyesini aşıyor; örneğin, "N407532 DW C5 XH PINS" için 757,600 adet mevcutken maksimum stok 0.</v>
+      </c>
+    </row>
+    <row r="85" xml:space="preserve">
+      <c r="A85" t="str">
+        <v>Ana birime göre çevrim faktörleriyle hesaplanan stok durumları nelerdir?</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Malzeme Stok Raporu</v>
+      </c>
+      <c r="C85" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Malzeme Stok Raporu
+          </v>
+      </c>
+      <c r="D85" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E85" t="str">
+        <v>İşte ana birime göre çevrim faktörleriyle stok durumu: "DEMİR KANGAL 1,1006-C" için 16,532 KG, "DEMİR KANGAL 1,1006" için hiç stok yok, "DEMİR KANGAL 1,1006" (15.00 MM) için 20,500 KG, "DEMİR KANGAL 1,1006-C" (6.00 MM) için hiç stok yok, "DEMİR KANGAL 1,1006" (6.00 MM) için 12,278 KG ve diğerleri arasında farklı miktarlarda stoklar mevcut; bazıları ise negatif değerler gösteriyor.</v>
+      </c>
+    </row>
+    <row r="86" xml:space="preserve">
+      <c r="A86" t="str">
+        <v>Bekleyen irsaliyeler toplam kaç kalemden oluşmaktadır?</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Faturalandırılmamış İrsaliye Raporu</v>
+      </c>
+      <c r="C86" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Faturalandırılmamış İrsaliye Raporu/ Satın Alma
+          </v>
+      </c>
+      <c r="D86" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Bekleyen irsaliyeler toplam kalem sayısı 813 adet.</v>
+      </c>
+    </row>
+    <row r="87" xml:space="preserve">
+      <c r="A87" t="str">
+        <v>Faturalandırılmayan irsaliyelerde toplam ne kadar ürün ve tutar söz konusudur?</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Faturalandırılmamış İrsaliye Raporu</v>
+      </c>
+      <c r="C87" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Faturalandırılmamış İrsaliye Raporu/ Satın Alma
+          </v>
+      </c>
+      <c r="D87" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E87" t="str">
+        <v>📊 Sorunuzun yanıtını içeren bir rapor bulamadım. Lütfen mevcut raporlarınızı kontrol edin veya sorunuzu farklı şekilde ifade etmeyi deneyin.</v>
+      </c>
+    </row>
+    <row r="88" xml:space="preserve">
+      <c r="A88" t="str">
+        <v>Bekleme sürelerine göre hangi irsaliyeler kritik seviyededir? (örn. 60 günü aşanlar)</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Faturalandırılmamış İrsaliye Raporu</v>
+      </c>
+      <c r="C88" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Faturalandırılmamış İrsaliye Raporu/ Satın Alma
+          </v>
+      </c>
+      <c r="D88" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E88" t="str">
+        <v>📊 Sorunuzun yanıtını içeren bir rapor bulamadım. Lütfen mevcut raporlarınızı kontrol edin veya sorunuzu farklı şekilde ifade etmeyi deneyin.</v>
+      </c>
+    </row>
+    <row r="89" xml:space="preserve">
+      <c r="A89" t="str">
+        <v>Bu carilerin bağlı olduğu nakliye firması bilgisi nedir?</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Lojistik Masrafları</v>
+      </c>
+      <c r="C89" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Faturalandırılmamış İrsaliye Raporu/ Satın Alma
+          </v>
+      </c>
+      <c r="D89" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E89" t="str">
+        <v>📊 Sorunuzun yanıtını içeren bir rapor bulamadım. Lütfen mevcut raporlarınızı kontrol edin veya sorunuzu farklı şekilde ifade etmeyi deneyin.</v>
+      </c>
+    </row>
+    <row r="90" xml:space="preserve">
+      <c r="A90" t="str">
+        <v>Bugün itibariyle bu carilerden hangilerine fatura kesildi?</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Lojistik Masrafları</v>
+      </c>
+      <c r="C90" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Müşteri İskonto Oranı Raporu 
+          </v>
+      </c>
+      <c r="D90" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Bugün kesilen faturalar arasında SERTEL SCREW &amp; NAIL CORP $ için toplam 4 fatura ve DOST TİCARET - ARSLAN KOZ için 1 fatura bulunuyor; toplam tutarlar sırasıyla 259,191.73 TL, 233,840.53 TL, 348,742.20 TL, 65,733.01 TL ve 19,021.61 TL'dir!</v>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
+      <c r="A91" t="str">
+        <v>Kesilen faturaların tutarları nedir ve hangi carilere ait?</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Lojistik Masrafları</v>
+      </c>
+      <c r="C91" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük Satış Sipariş Raporu
+          </v>
+      </c>
+      <c r="D91" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Bugün kesilen faturalar ve tutarları şu şekildedir: TAMAŞ ORMAN ÜRÜNLERİ TARIM HAYVANCILIK SAN.VE TİC.A.Ş - 20,898 TL, TUGAY RULMAN ADEM ÖZDEMİR - 5,429.82 TL, YAZGÜL BOYA HIRDAVAT İNŞAAT İTH. İHR. SAN. VE TİC. LTD. ŞTİ. - 139,626.54 TL, GÜLAL HIRDAVAT SAN. VE TİC. A.Ş. - 1,559,496.76 TL, ÇELİKSAN ÇİVİ İMALAT SAN VE TİC LTD.ŞTİ - 1,078,500.59 TL, KAPADOKYA PET AMBALAJ LEVHA ELYAF SANAYİ TİCARET LİMİTED ŞİRKETİ - 95,957.96 TL, ÇEMASAN ÇELİK MAK SAN TİC.A.Ş. - 5,410.64 TL, AKBAŞAK İNŞAAT MALZEMELERİ NALBURİYE HIRDAVAT TİC.LTD.ŞTİ.- 70,063.06 TL, ÖZÇEV ATIK YÖNETIMI VE GERİ KAZANIM SAN.VE DIŞ.TİC.LTD.ŞTİ.- 100,602.26 TL ve EGEÖZGEP AMBALAJ ATIĞI TOPLAMA AYIRMA TES.SAN.VE TİC.LTD.ŞTİ.- 49,135.10 TL'dir!</v>
+      </c>
+    </row>
+    <row r="92" xml:space="preserve">
+      <c r="A92" t="str">
+        <v>Peşin ödeme anlaşmalı faturalarda gecikme var mı?</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Müşteri Ödeme Performans Raporu</v>
+      </c>
+      <c r="C92" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Müşteri Ödeme Performans Raporu
+          </v>
+      </c>
+      <c r="D92" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E92" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="93" xml:space="preserve">
+      <c r="A93" t="str">
+        <v>bu yıl Ortalama müşteri ödeme performansım nedir?</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Müşteri Ödeme Performans Raporu</v>
+      </c>
+      <c r="C93" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Müşteri Ödeme Performans Raporu
+          </v>
+      </c>
+      <c r="D93" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Bu yıl müşteri ödeme performansı ortalaması %71,13.</v>
+      </c>
+    </row>
+    <row r="94" xml:space="preserve">
+      <c r="A94" t="str">
+        <v>bu yıl Zamanında ödeme yapan müşterilerim kimler?</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Müşteri Ödeme Performans Raporu</v>
+      </c>
+      <c r="C94" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Müşteri Ödeme Performans Raporu
+          </v>
+      </c>
+      <c r="D94" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Bu yıl zamanında ödeme yapan müşteriler arasında KARE HIRDAVAT-HAKAN ÜNAL ve ÖZLER NALBURİYE İZOLASYON HIRD.YAPI MALZ. TİC.SAN.A.Ş. bulunuyor; toplam ödemeleri 6,881.58 TL ve 20,060.47 TL ile 25,532.5 TL arasında değişiyor!</v>
+      </c>
+    </row>
+    <row r="95" xml:space="preserve">
+      <c r="A95" t="str">
+        <v>Bu ay kaç kişi işten ayrıldı?</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Turnover Yorumlama Raporu</v>
+      </c>
+      <c r="C95" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Turnover Yorumlama Raporu
+          </v>
+      </c>
+      <c r="D95" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Bu ay işten ayrılan kişi sayısı 30.</v>
+      </c>
+    </row>
+    <row r="96" xml:space="preserve">
+      <c r="A96" t="str">
+        <v>Hangi bölümlerde turnover oranı daha yüksek?</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Turnover Yorumlama Raporu</v>
+      </c>
+      <c r="C96" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Turnover Yorumlama Raporu
+          </v>
+      </c>
+      <c r="D96" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Turnover oranı yüksek olan bölümler şunlardır: YAĞLI BALYA TELİ (320), VİDA NK MONTAJ (150), VİDA ENJEKSİYON (140), ÜRÜN SEÇME-7.HOL (118.18) ve VİDA DURASPİN MONTAJ (116.67).</v>
+      </c>
+    </row>
+    <row r="97" xml:space="preserve">
+      <c r="A97" t="str">
+        <v>İşten ayrılmaların ana sebepleri neler?</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Turnover Yorumlama Raporu</v>
+      </c>
+      <c r="C97" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Turnover Yorumlama Raporu
+          </v>
+      </c>
+      <c r="D97" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Bu yıl işten ayrılma ana sebepleri arasında devamsızlık 97, belirsiz nedenler 44, performans düşüklüğü 20, çalışma koşullarından dolayı 16, şehir değişikliği ve yeni iş bulduğu için her biri 15, yeni iş bulduğundan 8, yeni iş bulma 7, noter kanalıyla ve evlilik ise her biri 6 kişiyle öne çıkıyor.</v>
+      </c>
+    </row>
+    <row r="98" xml:space="preserve">
+      <c r="A98" t="str">
+        <v>Mevcut aktif personele göre bu ayki turnover oranımız nedir?</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Turnover Yorumlama Raporu</v>
+      </c>
+      <c r="C98" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Turnover Yorumlama Raporu
+          </v>
+      </c>
+      <c r="D98" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Bu ay aktif personele göre turnover oranı %64,12.</v>
+      </c>
+    </row>
+    <row r="99" xml:space="preserve">
+      <c r="A99" t="str">
+        <v>Yıllık bazda devam ederse turnover % kaç olur?</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Turnover Yorumlama Raporu</v>
+      </c>
+      <c r="C99" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Turnover Yorumlama Raporu
+          </v>
+      </c>
+      <c r="D99" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E99" t="str">
+        <v>İşte aylık turnover oranlarından yıllıklaştırılmış turnover oranları: Eylül'de 908,532, Ağustos'ta 958,033, Temmuz'da 1,149,936, Haziran'da 1,099,074, Mayıs'ta 905,681, Nisan'da 922,158, Mart'ta 924,646, Şubat'ta 887,170 ve Ocak'ta 813,984.</v>
+      </c>
+    </row>
+    <row r="100" xml:space="preserve">
+      <c r="A100" t="str">
+        <v>Hangi bölümler kritik seviyede risk taşıyor?</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Turnover Yorumlama Raporu</v>
+      </c>
+      <c r="C100" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık İş Kazaları
+          </v>
+      </c>
+      <c r="D100" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Kritik seviyede risk taşıyan bölüm bulunmamaktadır.</v>
+      </c>
+    </row>
+    <row r="101" xml:space="preserve">
+      <c r="A101" t="str">
+        <v>Dönem içinde hangi ÖTV hesaplarında (126'lı hesaplarda) hareket oluşmuş?</v>
+      </c>
+      <c r="B101" t="str">
+        <v>ÖTV takibi</v>
+      </c>
+      <c r="C101" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 ÖTV takibi
+          </v>
+      </c>
+      <c r="D101" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E101" t="str">
+        <v>Belirtilen dönemde 126’lı ÖTV hesap hareketlerinde toplam alacak 19,602,680.70 TL, toplam borç ise 975.64 TL olarak kaydedilmiştir; bakiye ise 0 TL'dir.</v>
+      </c>
+    </row>
+    <row r="102" xml:space="preserve">
+      <c r="A102" t="str">
+        <v>Hangi ÖTV hesaplarının dönem sonu bakiyesi borç, hangileri alacak?</v>
+      </c>
+      <c r="B102" t="str">
+        <v>ÖTV takibi</v>
+      </c>
+      <c r="C102" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 ÖTV takibi
+          </v>
+      </c>
+      <c r="D102" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Dönem sonu bakiye dağılımı: Başabaş 1 cari, Alacak 31 cari ile toplam 10,112,895.81 TL, Borç 32 cari ile toplam 3,355,025.44 TL bulunuyor.</v>
+      </c>
+    </row>
+    <row r="103" xml:space="preserve">
+      <c r="A103" t="str">
+        <v>ÖTV hesaplarının toplam borç, toplam alacak ve net bakiye tutarları nedir?</v>
+      </c>
+      <c r="B103" t="str">
+        <v>ÖTV takibi</v>
+      </c>
+      <c r="C103" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 ÖTV takibi
+          </v>
+      </c>
+      <c r="D103" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E103" t="str">
+        <v>Toplam borç: 22,957,706.14 TL, toplam alacak: 29,715,576.51 TL ve net bakiye: 6,757,870.37 TL bulunmuştur.</v>
+      </c>
+    </row>
+    <row r="104" xml:space="preserve">
+      <c r="A104" t="str">
+        <v>bu yıl ÖTV alacaklarımız mı fazla yoksa tahsil edilmemiş borçlarımız mı var?</v>
+      </c>
+      <c r="B104" t="str">
+        <v>ÖTV takibi</v>
+      </c>
+      <c r="C104" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 196’lı Cari Hesaplar – Borç/Alacak ve Bakiye Özeti
+          </v>
+      </c>
+      <c r="D104" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E104" t="str">
+        <v>Bu yıl ÖTV hesapları borç ağırlıkta.</v>
+      </c>
+    </row>
+    <row r="105" xml:space="preserve">
+      <c r="A105" t="str">
+        <v>Hangi bankada hangi türde kredi hesabımız var?</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Kredi ödemeler takibi</v>
+      </c>
+      <c r="C105" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Kredi ödemeler takibi
+          </v>
+      </c>
+      <c r="D105" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E105" t="str">
+        <v>İşte bankalara göre kredi hesap türleri: İŞBANK SERTEL 34, HALKBANK SERTEL 5, KUVEYT TURK SERTEL 9, GARANTİ BANKASI 4, HSBC BANK SERTEL 4, VAKIFBANK SERTEL 4, YAPI KREDİ SERTEL 5, TEB SERTEL 2, DENİZBANK SERTEL ve FİBABANK SERTEL ise her biri 1 hesap türüne sahip.</v>
+      </c>
+    </row>
+    <row r="106" xml:space="preserve">
+      <c r="A106" t="str">
+        <v>Hangi krediler TL, hangileri döviz bazlı?</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Kredi ödemeler takibi</v>
+      </c>
+      <c r="C106" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Kredi ödemeler takibi
+          </v>
+      </c>
+      <c r="D106" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E106" t="str">
+        <v>TL bazlı krediler: 1,894, Döviz bazlı krediler: 96.</v>
+      </c>
+    </row>
+    <row r="107" xml:space="preserve">
+      <c r="A107" t="str">
+        <v>ROTATİF kredi hesaplarının toplam bakiyesi nedir?</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Kredi ödemeler takibi</v>
+      </c>
+      <c r="C107" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Kredi ödemeler takibi
+          </v>
+      </c>
+      <c r="D107" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E107" t="str">
+        <v>Rotatif kredi hesapları toplam bakiyesi bulunmamaktadır.</v>
+      </c>
+    </row>
+    <row r="108" xml:space="preserve">
+      <c r="A108" t="str">
+        <v>TEMİNAT ve SPOT kredilerimiz hangi bankada bulunuyor ve ne kadar bakiye var?</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Kredi ödemeler takibi</v>
+      </c>
+      <c r="C108" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Kredi ödemeler takibi
+          </v>
+      </c>
+      <c r="D108" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E108" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="109" xml:space="preserve">
+      <c r="A109" t="str">
+        <v>bu yıl ÇEK hesaplarımızın borç bakiyesi nedir?</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Müşteri çekleri (Çek kaybolması)</v>
+      </c>
+      <c r="C109" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Günlük Kasa ve Banka Ozet Raporu
+          </v>
+      </c>
+      <c r="D109" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E109" t="str">
+        <v>Bu yıl çek hesapları borç bakiyesi -44,220,731.76 TL.</v>
+      </c>
+    </row>
+    <row r="110" xml:space="preserve">
+      <c r="A110" t="str">
+        <v>bu yıl Genel olarak tüm kredi hesaplarının toplam borç yükü ne kadar?</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Kredi ödemeler takibi</v>
+      </c>
+      <c r="C110" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Kredi ödemeler takibi
+          </v>
+      </c>
+      <c r="D110" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E110" t="str">
+        <v>Bu yıl tüm kredi hesapları toplam borç tutarı 24,538.02 TL.</v>
+      </c>
+    </row>
+    <row r="111" xml:space="preserve">
+      <c r="A111" t="str">
+        <v>bu yıl Hangi kredilerin bakiyeleri kritik seviyede artmış durumda?</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Kredi ödemeler takibi</v>
+      </c>
+      <c r="C111" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Kredi ödemeler takibi
+          </v>
+      </c>
+      <c r="D111" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E111" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="112" xml:space="preserve">
+      <c r="A112" t="str">
+        <v>Bu yıl Leasing ödemelerinin faiz, KKDF, BSMV ve KDV gibi kalemlerdeki yükü nedir?</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Leasing ödemeleri takibi</v>
+      </c>
+      <c r="C112" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Leasing ödemeleri takibi
+          </v>
+      </c>
+      <c r="D112" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E112" t="str">
+        <v>Bu yıl leasing ödemeleri için faiz ve KDV tutarları bulunmamakta, KKDF ve BSMV ise hiç yok.</v>
+      </c>
+    </row>
+    <row r="113" xml:space="preserve">
+      <c r="A113" t="str">
+        <v>Bu yıl Leasing ödemeleri ağırlıklı olarak hangi döviz cinsinden yapılmaktadır?</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Leasing ödemeleri takibi</v>
+      </c>
+      <c r="C113" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Leasing ödemeleri takibi
+          </v>
+      </c>
+      <c r="D113" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E113" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="114" xml:space="preserve">
+      <c r="A114" t="str">
+        <v>Bu yıl Toplam leasing işlem sayısı, toplam ödeme ve toplam maliyet tutarı ne kadardır?</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Leasing ödemeleri takibi</v>
+      </c>
+      <c r="C114" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Leasing ödemeleri takibi
+          </v>
+      </c>
+      <c r="D114" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E114" t="str">
+        <v>Bu yıl leasing için işlem sayısı yok, toplam ödeme ve maliyet tutarı da bulunmamaktadır.</v>
+      </c>
+    </row>
+    <row r="115" xml:space="preserve">
+      <c r="A115" t="str">
+        <v>Hangi ham madde ve tüketim malzemeleri 6 aydan uzun süredir stokta hareketsiz durumdadır?</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Durağan Malzeme Bildirimleri (Tüketim ve Ham Malzeme)</v>
+      </c>
+      <c r="C115" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Durağan Malzeme Bildirimleri (Tüketim ve Ham Malzeme)
+          </v>
+      </c>
+      <c r="D115" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E115" t="str" xml:space="preserve">
+        <v xml:space="preserve">İşte son 6 aydır hareket görmeyen ham madde ve tüketim malzemeleri listesi: 
+1. **Malzeme Kodu:** 02021445 - **Malzeme Adı:** DIN 933-M8 (JBF-13B-4SXL) P01G201I - **Kalan Miktar:** 91 ADET
+2. **Malzeme Kodu:** 03070142 - **Malzeme Adı:** 1X95 MM2 CAM ELYAF İZOLELİ SİLİKON KABLO - **Kalan Miktar:** 30 MT
+3. **Malzeme Kodu:** 03070149 - **Malzeme Adı:** 1X120 MM2 CAM ELYAF İZOLELİ SİLİKON KABLO - **Kalan Miktar:** 15 MT
+4. **Malzeme Kodu:** AMB2006000005 - **Malzeme Adı:** KAĞIT BANT 20X100 KAHVE RENGİ - **Kalan Miktar:** 92 RULO
+5. **Malzeme Kodu:** AMB2006000025 - **Malzeme Adı:** 010070-KART.KUTU 120X80X65 NK-72 KUTUSU - **Kalan Miktar:** 3,000 ADET
+6. **Malzeme Kodu:** AMB2006000050 - **Malzeme Adı:** 010058 - 650A-75X52X115 DOLPHİN KUTU-OTO - **Kalan Miktar:** 3,600 ADET
+7. **Malzeme Kodu:** AMB2006000102 - **Malzeme Adı:** 010219-95X75X120-RIGIPS MATKAPUÇ İÇ KUTU-MANUAL - **Kalan Miktar:** 20,200 ADET
+8. **Malzeme Kodu:** AMB2006000110 - **Malzeme Adı:** 010239-653A-95X75X120 BASKISIZ BEYAZ VİDA K-MANUAL - **Kalan Miktar:** 50,200 ADET
+Bu malzemeler uzun süredir hareketsiz durumda!</v>
+      </c>
+    </row>
+    <row r="116" xml:space="preserve">
+      <c r="A116" t="str">
+        <v>Bu ürünlerin mevcut stok miktarı ve birimleri nelerdir?</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Durağan Malzeme Bildirimleri (Tüketim ve Ham Malzeme)</v>
+      </c>
+      <c r="C116" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Durağan Malzeme Bildirimleri (Tüketim ve Ham Malzeme)
+          </v>
+      </c>
+      <c r="D116" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E116" t="str">
+        <v>Mevcut stok miktarları ve birimleri: 91 ADET, 30 MT, 15 MT, 92 RULO, 480 KG, 3,000 ADET, 3,600 ADET, 4,800 ADET, 20,200 ADET ve 50,200 ADET.</v>
+      </c>
+    </row>
+    <row r="117" xml:space="preserve">
+      <c r="A117" t="str">
+        <v>Durağan ürünlerin stok toplamı nedir?</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Durağan Malzeme Bildirimleri (Tüketim ve Ham Malzeme)</v>
+      </c>
+      <c r="C117" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Durağan Malzeme Bildirimleri (Ticari Malzeme, Mamül)
+          </v>
+      </c>
+      <c r="D117" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E117" t="str">
+        <v>Durağan ürünler için stok toplamı bulunamadı.</v>
+      </c>
+    </row>
+    <row r="118" xml:space="preserve">
+      <c r="A118" t="str">
+        <v>En eski ilk hareket tarihi olan WIP ürünleri hangileri?</v>
+      </c>
+      <c r="B118" t="str">
+        <v>WIP Takip Raporu</v>
+      </c>
+      <c r="C118" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 FİFO'ya Göre Çıkış Yapmayan Ürün Raporu
+          </v>
+      </c>
+      <c r="D118" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E118" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="119" xml:space="preserve">
+      <c r="A119" t="str">
+        <v>Hangi malzemelerde %80’den fazla WIP oranı var?</v>
+      </c>
+      <c r="B119" t="str">
+        <v>WIP Takip Raporu</v>
+      </c>
+      <c r="C119" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 FİFO'ya Göre Çıkış Yapmayan Ürün Raporu
+          </v>
+      </c>
+      <c r="D119" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E119" t="str">
+        <v>📊 Sorunuzun yanıtını içeren bir rapor bulamadım. Lütfen mevcut raporlarınızı kontrol edin veya sorunuzu farklı şekilde ifade etmeyi deneyin.</v>
+      </c>
+    </row>
+    <row r="120" xml:space="preserve">
+      <c r="A120" t="str">
+        <v>2025 yılında kaç farklı tedarikçiden teklif aldık</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Verilen tekliflerin birim fiyatına göre kıyaslama</v>
+      </c>
+      <c r="C120" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Tedarikçi Performans Raporu
+          </v>
+      </c>
+      <c r="D120" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E120" t="str" xml:space="preserve">
+        <v xml:space="preserve">Toplam 47034 kayıt bulundu:
+1.  - birim: ADET
+2.  - birim: ADET
+3.  - birim: ADET
+4.  - birim: ADET
+5.  - birim: ADET
+... and 47029 more records</v>
+      </c>
+    </row>
+    <row r="121" xml:space="preserve">
+      <c r="A121" t="str">
+        <v>Bu yıl Hangi malzemelerde fiyat farkı %20’nin üzerinde çıkmış?</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Verilen tekliflerin birim fiyatına göre kıyaslama</v>
+      </c>
+      <c r="C121" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Giriş Yapılan Malzemenin Birim Fiyat Kontrolü Aylık 
+          </v>
+      </c>
+      <c r="D121" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E121" t="str">
+        <v>Bu yıl %20'nin üzerinde fiyat farkı çıkan malzemeler arasında "010329-95X125x65-652A-MANUEL YENİ AKDENİZ VİDAKUTU" (fiyat değişimi %80), "ÇEKÇEK (MİNİ ÇEKPAS)" (fiyat değişimi %33.33) ve "ELEKTRONİK DEVRE TEMİZLEYİCİ YAĞSIZ" (fiyat değişimi %148.06) gibi ürünler bulunuyor!</v>
+      </c>
+    </row>
+    <row r="122" xml:space="preserve">
+      <c r="A122" t="str">
+        <v>Yılbaşından bugüne en fazla gelir elde eden şubeler hangileri?</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Şube Bazlı Gelir Gider Kıyaslaması</v>
+      </c>
+      <c r="C122" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satış Performans Raporu
+          </v>
+      </c>
+      <c r="D122" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E122" t="str">
+        <v>Yılbaşından bugüne en fazla gelir elde eden şubeler arasında BIRSEN SERTTAS 113,857,953.55 TL ile ilk sırada, ardından NUR DURDANE GÜL 109,703,235.94 TL ve MUHASEBE OFİS 74,581,252.45 TL ile devam ediyor!</v>
+      </c>
+    </row>
+    <row r="123" xml:space="preserve">
+      <c r="A123" t="str">
+        <v>Hangi masraf merkezlerinde gider yoğunluğu var? Geçen yıla göre değişim nasıl?</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Bölüm bazlı gider kontrolü (ekipmani çalışan ve malzeme),</v>
+      </c>
+      <c r="C123" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Şube Bazlı Gelir Gider Kıyaslaması
+          </v>
+      </c>
+      <c r="D123" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E123" t="str" xml:space="preserve">
+        <v xml:space="preserve">Toplam 654 kayıt bulundu:
+1. Tip: GELİR - SubeAdi: ŞUBE GR - GelirAdi: Satış Gelirleri
+2. Tip: GELİR - SubeAdi: ŞUBE GR - GelirAdi: Satış Gelirleri
+3. Tip: GİDER - SubeAdi: ŞUBE - GelirAdi: Gider Belgeleri
+4. Tip: GİDER - SubeAdi: ŞUBE - GelirAdi: Alış Faturaları
+5. Tip: GELİR - SubeAdi: ŞUBE - GelirAdi: Satış Gelirleri
+... and 649 more records</v>
+      </c>
+    </row>
+    <row r="124" xml:space="preserve">
+      <c r="A124" t="str">
+        <v>Bu yıl Hangi masraf merkezleri en büyük gider kalemleri olarak öne çıkıyor?</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Bölüm bazlı gider kontrolü (ekipmani çalışan ve malzeme),</v>
+      </c>
+      <c r="C124" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Bölüm bazlı gider kontrolü (ekipmani çalışan ve malzeme),
+          </v>
+      </c>
+      <c r="D124" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E124" t="str">
+        <v>Bu yıl masraf merkezleri arasında en büyük gider kalemi işçilik olup, toplam tutarı 23,764,190.85 TL'dir; diğer bazı önemli gider kalemleri ise malzeme giderleridir.</v>
+      </c>
+    </row>
+    <row r="125" xml:space="preserve">
+      <c r="A125" t="str">
+        <v>Ay bazında, tüm araçlar için toplam bakım masrafı ne kadar olmuş?</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Araç masraf ve bakım takip raporu</v>
+      </c>
+      <c r="C125" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Araç masraf ve bakım takip raporu
+          </v>
+      </c>
+      <c r="D125" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E125" t="str">
+        <v>Bu yıl ay bazında tüm araçların toplam bakım masrafı 13,301,822.63 TL'dir.</v>
+      </c>
+    </row>
+    <row r="126" xml:space="preserve">
+      <c r="A126" t="str">
+        <v>Bu yıl araçlara toplam ne kadar harcamışız?</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Araç masraf ve bakım takip raporu</v>
+      </c>
+      <c r="C126" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Araç masraf ve bakım takip raporu
+          </v>
+      </c>
+      <c r="D126" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E126" t="str">
+        <v>Bu yıl araçlar için toplam harcama tutarı 13,301,822.63 TL'dir.</v>
+      </c>
+    </row>
+    <row r="127" xml:space="preserve">
+      <c r="A127" t="str">
+        <v>Hangi şubenin toplam gideri yılın ilk 6 ayında en yüksek?</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Sube Bazli Gider Raporu</v>
+      </c>
+      <c r="C127" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Sube Bazli Gider Raporu 
+          </v>
+      </c>
+      <c r="D127" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E127" t="str">
+        <v>Bu yılın ilk 6 ayında şube bazında en yüksek toplam gider İstanbul Şubesi'nde, 5,411,375.50 TL olarak kaydedilmiştir.</v>
+      </c>
+    </row>
+    <row r="128" xml:space="preserve">
+      <c r="A128" t="str">
+        <v>Hangi şubenin giderlerinde en büyük düşüş hangi ayda olmuş?</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Sube Bazli Gider Raporu</v>
+      </c>
+      <c r="C128" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Sube Bazli Gider Raporu 
+          </v>
+      </c>
+      <c r="D128" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E128" t="str">
+        <v>En büyük gider düşüşü Ağustos ayında, SB006 şubesinde gerçekleşmiş ve tutar -1.238.426,84 TL olmuştur.</v>
+      </c>
+    </row>
+    <row r="129" xml:space="preserve">
+      <c r="A129" t="str">
+        <v>Ocak ve Temmuz arasındaki toplam gider farkı ne kadar?</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Sube Bazli Gider Raporu</v>
+      </c>
+      <c r="C129" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Sube Bazli Gider Raporu 
+          </v>
+      </c>
+      <c r="D129" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E129" t="str">
+        <v>Ocak ve Temmuz toplam gider farkı -2,363,364.75 TL olarak hesaplandı.</v>
+      </c>
+    </row>
+    <row r="130" xml:space="preserve">
+      <c r="A130" t="str">
+        <v>En yüksek tek ay gideri hangi şube ve hangi ayda gerçekleşmiş?</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Sube Bazli Gider Raporu</v>
+      </c>
+      <c r="C130" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Sube Bazli Gider Raporu 
+          </v>
+      </c>
+      <c r="D130" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E130" t="str">
+        <v>En yüksek tek ay gideri İzmir Şube'de Nisan ayında 99,558 TL olarak gerçekleşmiştir.</v>
+      </c>
+    </row>
+    <row r="131" xml:space="preserve">
+      <c r="A131" t="str">
+        <v>En yüksek gider hangi ayda olmuş?</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Sube Bazli Gider Raporu</v>
+      </c>
+      <c r="C131" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Sube Bazli Gider Raporu 
+          </v>
+      </c>
+      <c r="D131" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E131" t="str">
+        <v>Bu yıl en yüksek gider ayı Temmuz, toplam gider ise 3,530,475.63 TL.</v>
+      </c>
+    </row>
+    <row r="132" xml:space="preserve">
+      <c r="A132" t="str">
+        <v>bu yıl En düşük gider hangi şubede?</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Sube Bazli Gider Raporu</v>
+      </c>
+      <c r="C132" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Sube Bazli Gider Raporu 
+          </v>
+      </c>
+      <c r="D132" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E132" t="str">
+        <v>Bu yıl en düşük gider şubesi İZMİR ŞUBE, gideri 126,900 TL.</v>
+      </c>
+    </row>
+    <row r="133" xml:space="preserve">
+      <c r="A133" t="str">
+        <v>İlk 3 şube giderlerin yüzde kaçını yapıyor?</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Sube Bazli Gider Raporu</v>
+      </c>
+      <c r="C133" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Sube Bazli Gider Raporu 
+          </v>
+      </c>
+      <c r="D133" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E133" t="str">
+        <v>Bu yıl ilk 3 şubenin toplam gider payı yüzdeleri: İstanbul Şube %57,77, Ankara Şube %25,58 ve İzmir Şube %14,31.</v>
+      </c>
+    </row>
+    <row r="134" xml:space="preserve">
+      <c r="A134" t="str">
+        <v>Ortalama fiyatı en yüksek sarf malzeme hangisi?</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Sarf Malzeme Kontrol</v>
+      </c>
+      <c r="C134" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Satın alma perfomansı (Birim maliyet, tonaj, üretim)
+          </v>
+      </c>
+      <c r="D134" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E134" t="str">
+        <v>En yüksek ortalama fiyatı 28,55 TL olan sarf malzeme "SARF MALZEME TAKIM DEPO TALEP TESLİM FORMU 100 LÜK".</v>
+      </c>
+    </row>
+    <row r="135" xml:space="preserve">
+      <c r="A135" t="str">
+        <v>Hangi sarf malzemenin toplam girişi sıfır ama çıkışı var?</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Sarf Malzeme Kontrol</v>
+      </c>
+      <c r="C135" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Aylık Malzeme Girişi ve Çıkışı Kontrolü (Ticari Mal ve Tüketim Malı)
+          </v>
+      </c>
+      <c r="D135" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E135" t="str">
+        <v>📊 No results found for your criteria.</v>
+      </c>
+    </row>
+    <row r="136" xml:space="preserve">
+      <c r="A136" t="str">
+        <v>Hangi hammaddeler hangi masraf merkezlerinde kullanılmış?</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Hammadde Kontrol</v>
+      </c>
+      <c r="C136" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Gider Mizan Raporu
+          </v>
+      </c>
+      <c r="D136" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E136" t="str">
+        <v>İşte hammaddeler ve kullanıldıkları masraf merkezleri dağılımı: Yurt içi satışlar, plastik çiviler, tele dizili çiviler, beton çivisi, dökme çivisi, alçıpan vidaları, buldeks vidaları, sunta vidaları, betofas vidaları ve dikiş vidaları gibi çeşitli ürünlerin masraf merkezlerine göre aylık harcamaları detaylı bir şekilde listelenmiştir.</v>
+      </c>
+    </row>
+    <row r="137" xml:space="preserve">
+      <c r="A137" t="str">
+        <v>Ortalama hammadde fiyatı nedir, toplam maliyet tutarı ne olmuştur?</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Hammadde Kontrol</v>
+      </c>
+      <c r="C137" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Üretilen mamül malzeme takibi 
+          </v>
+      </c>
+      <c r="D137" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E137" t="str">
+        <v>Ortalama hammadde fiyatı ve toplam hammadde maliyet tutarı için hiçbir veri bulunmamaktadır.</v>
+      </c>
+    </row>
+    <row r="138" xml:space="preserve">
+      <c r="A138" t="str">
+        <v>dün itibarıyla toplam hammadde stoku ne kadardır?</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Hammadde Kontrol</v>
+      </c>
+      <c r="C138" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Hammadde Kontrol 
+          </v>
+      </c>
+      <c r="D138" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E138" t="str">
+        <v>Dün hammadde toplam stok için herhangi bir veri bulunamadı.</v>
+      </c>
+    </row>
+    <row r="139" xml:space="preserve">
+      <c r="A139" t="str">
+        <v>Geçen ay kim hangi tarihler arasında izin aldı?</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Personel Devamsızlık Raporu</v>
+      </c>
+      <c r="C139" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Yıllık İzin
+          </v>
+      </c>
+      <c r="D139" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E139" t="str">
+        <v>Geçen ay izin alan personeller ve izin tarih aralıkları şu şekildedir: Hasan Abdullah (14 gün), Kutbettin Acar (31 gün), Mustafa Acar (51 gün), Nevzat Acar (16 gün), Nihat Acar (11 gün), Yusuf Acar (6 gün), Sevgi Acıkabak (8 gün), Ali Acır (30 gün) ve Gülcan Açıkgöz (7 gün), Hacı Mustafa Adalı (38 gün).</v>
+      </c>
+    </row>
+    <row r="140" xml:space="preserve">
+      <c r="A140" t="str">
+        <v>En çok devamsızlık yapılan izin türü nedir?</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Personel Devamsızlık Raporu</v>
+      </c>
+      <c r="C140" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Personel Devamsızlık Raporu
+          </v>
+      </c>
+      <c r="D140" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E140" t="str">
+        <v>En çok devamsızlık yapılan izin türü "YILLIK İZİN" olup, toplam 68 adet kullanılmış.</v>
+      </c>
+    </row>
+    <row r="141" xml:space="preserve">
+      <c r="A141" t="str">
+        <v>Bölümlere göre izin gün sayısı dağılımı nasıl?</v>
+      </c>
+      <c r="B141" t="str">
+        <v>Personel Devamsızlık Raporu</v>
+      </c>
+      <c r="C141" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Yıllık İzin
+          </v>
+      </c>
+      <c r="D141" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E141" t="str">
+        <v>İzin gün sayısı dağılımı şu şekildedir: VİDA FOSFATLAMA VE YAĞLAMA 455 gün, ÇİVİ DÖKME PAKETLEME 540 gün, VİDA DURASPİN MONTAJ 26 gün, ELEKTROGALVANİZ 1,202 gün, FABRİKA İDARİ 1,870 gün, ÇİVİ KESME 302 gün, VİDA OVALAMA 572 gün, VİDA STRIP MONTAJ 79 gün, GENEL HİZMET 435 gün ve VİDA PAKETLEME 1,085 gündür.</v>
+      </c>
+    </row>
+    <row r="142" xml:space="preserve">
+      <c r="A142" t="str">
+        <v>Son ayda toplam kaç gün devamsızlık yaşandı?</v>
+      </c>
+      <c r="B142" t="str">
+        <v>Personel Devamsızlık Raporu</v>
+      </c>
+      <c r="C142" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Yıllık İzin
+          </v>
+      </c>
+      <c r="D142" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E142" t="str">
+        <v>Toplam devamsızlık günü: 61 gün.</v>
+      </c>
+    </row>
+    <row r="143" xml:space="preserve">
+      <c r="A143" t="str">
+        <v>En çok devamsızlık yapan kim?</v>
+      </c>
+      <c r="B143" t="str">
+        <v>Personel Devamsızlık Raporu</v>
+      </c>
+      <c r="C143" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Personel Devamsızlık Raporu
+          </v>
+      </c>
+      <c r="D143" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E143" t="str">
+        <v>Son dönem en çok devamsızlık yapan personel ABDULLAH AL HALABİYE(SURİYELİ) olup, toplam 98 gün devamsızlık yapmıştır.</v>
+      </c>
+    </row>
+    <row r="144" xml:space="preserve">
+      <c r="A144" t="str">
+        <v>Hangi departmanda devamsızlık fazla?</v>
+      </c>
+      <c r="B144" t="str">
+        <v>Personel Devamsızlık Raporu</v>
+      </c>
+      <c r="C144" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Personel Devamsızlık Raporu
+          </v>
+      </c>
+      <c r="D144" t="str">
+        <v>EVET</v>
+      </c>
+      <c r="E144" t="str">
+        <v>En yüksek devamsızlık toplamı "ELEKTROGALVANİZ" departmanında, 151 olarak kaydedilmiştir.</v>
+      </c>
+    </row>
+    <row r="145" xml:space="preserve">
+      <c r="A145" t="str">
+        <v>Hangi depolar %90 ve üzeri dolu, yani kapasite riski taşıyor?</v>
+      </c>
+      <c r="B145" t="str">
+        <v>Depo Doluluk Oranı</v>
+      </c>
+      <c r="C145" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Depo  Doluluk  Oranı 
+          </v>
+      </c>
+      <c r="D145" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E145" t="str">
+        <v>Depolar arasında %90 ve üzeri doluluk oranına sahip olanlar: 1.SG.0-1 (1,057.41), 1.SG.0-2 (2,149.94), 1.SG.0-7 (1,160.55) ve 1.SG.0-8 (697).</v>
+      </c>
+    </row>
+    <row r="146" xml:space="preserve">
+      <c r="A146" t="str">
+        <v>Hangi depolar %50’nin altında dolu, yani transfer veya konsolidasyon yapılabilir?</v>
+      </c>
+      <c r="B146" t="str">
+        <v>Depo Doluluk Oranı</v>
+      </c>
+      <c r="C146" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 Depo  Doluluk  Oranı 
+          </v>
+      </c>
+      <c r="D146" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E146" t="str">
+        <v>İşte %50'nin altında doluluk oranına sahip depolar: 1.SG.0-1 (1,057.41 adet), 1.SG.0-10 (20 adet), 1.SG.0-11 (790.58 adet), 1.SG.0-2 (2,149.94 adet), 1.SG.0-3 (312.5 adet), 1.SG.0-4 (602.5 adet), 1.SG.0-5 (158 adet), 1.SG.0-6 (32 adet), 1.SG.0-7 (1,160.55 adet) ve 1.SG.0-8 (697 adet).</v>
+      </c>
+    </row>
+    <row r="147" xml:space="preserve">
+      <c r="A147" t="str">
+        <v>Depolarda kaç farklı malzeme çeşidi bulunuyor?</v>
+      </c>
+      <c r="B147" t="str">
+        <v>Depo Doluluk Oranı</v>
+      </c>
+      <c r="C147" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 ABC Analizin (GENEL)
+          </v>
+      </c>
+      <c r="D147" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E147" t="str">
+        <v>Depolarda toplam 10,540 farklı malzeme çeşidi bulunmaktadır.</v>
+      </c>
+    </row>
+    <row r="148" xml:space="preserve">
+      <c r="A148" t="str">
+        <v>Bugün itibarıyla toplam stok TL tutarı nedir?</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Depo Doluluk Oranı</v>
+      </c>
+      <c r="C148" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+                    📁 ABC Analizin (GENEL)
+          </v>
+      </c>
+      <c r="D148" t="str">
+        <v>HAYIR</v>
+      </c>
+      <c r="E148" t="str">
+        <v>Bugün toplam stok tutarı 387,310,301.43 TL.</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E3" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E148"/>
   </ignoredErrors>
 </worksheet>
 </file>